--- a/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
+++ b/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Catálogos" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="106" r:id="rId4"/>
+    <pivotCache cacheId="111" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -804,6 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,7 +863,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
@@ -1504,7 +1505,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1769,6 +1772,29 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
+                  <c:x val="-9.3830635702556925E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
                   <c:x val="-0.12069884339813938"/>
                   <c:y val="-0.10416666666666667"/>
                 </c:manualLayout>
@@ -1784,7 +1810,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
+                  <c16:uniqueId val="{00000020-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1843,13 +1869,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$4:$A$6</c:f>
+              <c:f>GRAFICOS!$A$4:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Pendiente</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Realizado</c:v>
                 </c:pt>
               </c:strCache>
@@ -1857,15 +1886,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$4:$B$6</c:f>
+              <c:f>GRAFICOS!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,6 +2071,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2424,6 +2457,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3355,7 +3389,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3507,6 +3541,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5470,13 +5505,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5578,7 +5613,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45156.493545370373" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45168.712261689812" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:N19" sheet="Catálogos"/>
   </cacheSource>
@@ -5614,10 +5649,10 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Resultado Esperado" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="N° de Indicente" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="102" maxValue="102"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="103" maxValue="103"/>
     </cacheField>
     <cacheField name="Desarrollador" numFmtId="0">
       <sharedItems containsBlank="1" count="3">
@@ -5647,8 +5682,70 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45168.712912847222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A6:N49" sheet="Catálogos"/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="N° Caso" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
+    </cacheField>
+    <cacheField name="Menús" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Submenú" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Perfil" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Usuario " numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Acción" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Estatus de Prueba" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Realizado"/>
+        <s v="Error"/>
+        <s v="Pendiente"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Resultado Obtenido" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Resultado Esperado" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="N° de Indicente" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="103" maxValue="103"/>
+    </cacheField>
+    <cacheField name="Desarrollador" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Estatus Incidente" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="N° de Tarea Jira" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Fecha " numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-08-18T00:00:00" maxDate="2023-08-19T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="12">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="13">
   <r>
     <n v="1"/>
     <s v="Ingresar sitio web"/>
@@ -5700,7 +5797,7 @@
   <r>
     <n v="4"/>
     <s v="Principal "/>
-    <s v="Catálogos "/>
+    <s v="Administración de Auditorias "/>
     <s v="Administrador "/>
     <s v="disrec"/>
     <s v="Pantalla Inicio "/>
@@ -5715,8 +5812,8 @@
   </r>
   <r>
     <n v="5"/>
-    <s v="Catálogos "/>
-    <s v="Años Fiscales "/>
+    <s v="Aplicación Auditorias "/>
+    <s v="Auditorías"/>
     <s v="Administrador "/>
     <s v="disrec"/>
     <s v="Ingresar "/>
@@ -5737,12 +5834,12 @@
     <m/>
     <s v="Agregar"/>
     <x v="1"/>
-    <s v="Agrega Registro, pero la hora de creación y de editar no coinsiden en tiempo real "/>
+    <s v="Falla al agregar registro, no direcciona a página principal. Ademas de registrar el mismo registro varias veces. "/>
     <s v="Agrega Registro "/>
-    <n v="102"/>
+    <n v="103"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="https://sfytgenl.atlassian.net/browse/SICSA-163"/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-182"/>
     <d v="2023-08-18T00:00:00"/>
   </r>
   <r>
@@ -5753,7 +5850,7 @@
     <m/>
     <s v="Editar"/>
     <x v="1"/>
-    <s v="Edita registro. Ajustar hora de edición esta una hora atrasada "/>
+    <s v="el mensaje de confirmación dice consulta exitosa y no y no la acción que acaba de realizar Actualizar el Registro con éxito. "/>
     <s v="Edita Registro "/>
     <m/>
     <x v="0"/>
@@ -5768,8 +5865,8 @@
     <m/>
     <m/>
     <s v="Eliminar "/>
-    <x v="0"/>
-    <s v="Elimina registro "/>
+    <x v="1"/>
+    <s v="Al momento de eliminar el registro arroja dos mensajes de confirmación "/>
     <s v="Elimina Registro "/>
     <m/>
     <x v="0"/>
@@ -5785,7 +5882,7 @@
     <m/>
     <s v="Buscar "/>
     <x v="0"/>
-    <s v="Busca registro "/>
+    <s v="Busca Registros requerido "/>
     <s v="Buscar registros "/>
     <m/>
     <x v="0"/>
@@ -5801,7 +5898,7 @@
     <m/>
     <s v="Filtrado "/>
     <x v="0"/>
-    <s v="Filtrado"/>
+    <s v="Filtra Registros "/>
     <s v="Filtra registro con los caracteres requerido "/>
     <m/>
     <x v="0"/>
@@ -5815,9 +5912,25 @@
     <m/>
     <m/>
     <m/>
+    <s v="Exportar "/>
+    <x v="0"/>
+    <s v="Exporta Registros "/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <s v="Filas por Página "/>
     <x v="0"/>
-    <s v="Filtra por paginación "/>
+    <s v="Filtra por Paginación "/>
     <s v="Filtra por Pagina "/>
     <m/>
     <x v="0"/>
@@ -5831,193 +5944,714 @@
     <m/>
     <m/>
     <m/>
-    <s v="Ortagrafía "/>
-    <x v="1"/>
-    <s v="Agregar acentos, redactar mensaje de alerta esta en ingles al agregar mas de 4 digitos  "/>
+    <s v="Ortografía"/>
+    <x v="0"/>
+    <s v="No se visualizan faltas de ortografia "/>
     <s v="Buena Ortografía "/>
-    <n v="102"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://sfytgenl.atlassian.net/browse/SICSA-163"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
     <d v="2023-08-18T00:00:00"/>
   </r>
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="43">
+  <r>
+    <n v="1"/>
+    <s v="Ingresar sitio web"/>
+    <s v="http://10.200.4.165/"/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar "/>
+    <x v="0"/>
+    <s v="Ingresa al sitio wed correspondiente "/>
+    <s v="Ingresar "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2023-08-18T00:00:00"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Ingresar las Credenciales "/>
+    <s v="disrec"/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar "/>
+    <x v="0"/>
+    <s v="Direcciona "/>
+    <s v="Ingresar "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Aplicación Auditorias "/>
+    <m/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar "/>
+    <x v="0"/>
+    <s v="Ingresar a  la plataforma"/>
+    <s v="Ingresar plataforma PAUA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Principal "/>
+    <s v="Administración de Auditorias "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Pantalla Inicio "/>
+    <x v="0"/>
+    <s v="Ingresa al menú correctamente"/>
+    <s v="Ingresar al Menú Catálogos "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Aplicación Auditorias "/>
+    <s v="Auditorías"/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar "/>
+    <x v="0"/>
+    <s v="Ingresa al catálogo"/>
+    <s v="Ingresar al catálogo"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Agregar"/>
+    <x v="1"/>
+    <s v="Falla al agregar registro, no direcciona a página principal. Ademas de registrar el mismo registro varias veces. "/>
+    <s v="Agrega Registro "/>
+    <n v="103"/>
+    <s v="Leslie Lucio "/>
+    <s v="Tarea por hacer"/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-182"/>
+    <d v="2023-08-18T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="1"/>
+    <s v="el mensaje de confirmación dice consulta exitosa y no y no la acción que acaba de realizar Actualizar el Registro con éxito. "/>
+    <s v="Edita Registro "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="1"/>
+    <s v="Al momento de eliminar el registro arroja dos mensajes de confirmación "/>
+    <s v="Elimina Registro "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Buscar "/>
+    <x v="0"/>
+    <s v="Busca Registros requerido "/>
+    <s v="Buscar registros "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Filtrado "/>
+    <x v="0"/>
+    <s v="Filtra Registros "/>
+    <s v="Filtra registro con los caracteres requerido "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Exportar "/>
+    <x v="0"/>
+    <s v="Exporta Registros "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Filas por Página "/>
+    <x v="0"/>
+    <s v="Filtra por Paginación "/>
+    <s v="Filtra por Pagina "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ortografía"/>
+    <x v="0"/>
+    <s v="No se visualizan faltas de ortografia "/>
+    <s v="Buena Ortografía "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2023-08-18T00:00:00"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Auditorias "/>
+    <s v="Ver Oficios "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Agregar"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver Adjunto "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Auditorias "/>
+    <s v="ver Adjuntos "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Cargar Documentos "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Visualizar Adjunto"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Descargar Adjunto "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Verificar Adjunto de Oficio"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver trazabilidad "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Auditorias "/>
+    <s v="Acciones "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Agregar"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Importar Plantilla"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver Adjuntos de Acciones "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Auditorias "/>
+    <s v="Botón de Notificación Área "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Agregar"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver Adjunto de Notificación de Área "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver Contestación de Notificación de Área"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Botón para Ver Plan de Trabajo de Auditorias "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar al Plan de Trabajo "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Estatus de Prueba" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:D51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6115,6 +6749,180 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="111" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Estatus de Prueba" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6373,11 +7181,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="7" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6398,94 +7206,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="34" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -6660,19 +7468,19 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="27">
         <v>5</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -6690,11 +7498,11 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="23" t="s">
         <v>19</v>
       </c>
@@ -6724,11 +7532,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="23" t="s">
         <v>20</v>
       </c>
@@ -6744,18 +7552,18 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="23" t="s">
         <v>52</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="25" t="s">
         <v>99</v>
       </c>
       <c r="I14" s="23" t="s">
@@ -6764,11 +7572,11 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="23" t="s">
         <v>53</v>
       </c>
@@ -6784,11 +7592,11 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="23" t="s">
         <v>54</v>
       </c>
@@ -6804,11 +7612,11 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="23" t="s">
         <v>77</v>
       </c>
@@ -6821,11 +7629,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="23" t="s">
         <v>55</v>
       </c>
@@ -6841,11 +7649,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="23" t="s">
         <v>78</v>
       </c>
@@ -6864,23 +7672,26 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="26">
         <v>6</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
@@ -6890,13 +7701,16 @@
       <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="23" t="s">
         <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -6906,13 +7720,16 @@
       <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="23" t="s">
         <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -6922,13 +7739,16 @@
       <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="24" t="s">
         <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
@@ -6938,23 +7758,26 @@
       <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="26">
         <v>7</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -6964,13 +7787,16 @@
       <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="24" t="s">
         <v>84</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -6980,13 +7806,16 @@
       <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="24" t="s">
         <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -6996,13 +7825,16 @@
       <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="24" t="s">
         <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
       </c>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -7012,13 +7844,16 @@
       <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="24" t="s">
         <v>87</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -7028,23 +7863,26 @@
       <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="26">
         <v>8</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -7054,13 +7892,16 @@
       <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="24" t="s">
         <v>89</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -7070,13 +7911,16 @@
       <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="24" t="s">
         <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -7086,13 +7930,16 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="24" t="s">
         <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -7102,13 +7949,16 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="24" t="s">
         <v>90</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -7118,23 +7968,26 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+      <c r="A34" s="26">
         <v>9</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -7144,13 +7997,16 @@
       <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="24" t="s">
         <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -7160,13 +8016,16 @@
       <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="24" t="s">
         <v>52</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -7176,13 +8035,16 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="24" t="s">
         <v>92</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -7192,13 +8054,16 @@
       <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="24" t="s">
         <v>93</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -7221,6 +8086,9 @@
       </c>
       <c r="F39" s="24" t="s">
         <v>95</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -8296,6 +9164,23 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="C24:C28"/>
@@ -8309,24 +9194,7 @@
     <mergeCell ref="E34:E38"/>
     <mergeCell ref="D34:D38"/>
     <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
     <mergeCell ref="B34:B38"/>
   </mergeCells>
   <hyperlinks>
@@ -8340,9 +9208,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Datos!$B$2:$B$4</xm:f>
+            <xm:f>Datos!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G111:G1048576 G1:G39</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8366,14 +9234,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
@@ -8402,18 +9270,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="18">
-        <v>12</v>
+      <c r="B7" s="18">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -8472,10 +9348,10 @@
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -8484,10 +9360,10 @@
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
+++ b/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
   </bookViews>
   <sheets>
     <sheet name="Catálogos" sheetId="8" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="106" r:id="rId4"/>
-    <pivotCache cacheId="111" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -806,12 +806,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,6 +856,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2071,7 +2071,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2457,7 +2456,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3541,7 +3539,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6651,7 +6648,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:D51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6761,7 +6758,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -6826,7 +6823,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="111" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -7181,11 +7178,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7206,94 +7203,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="35" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -7468,19 +7465,19 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="44">
         <v>5</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="43" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -7498,16 +7495,16 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H12" s="23" t="s">
         <v>97</v>
@@ -7522,7 +7519,7 @@
         <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>96</v>
@@ -7532,16 +7529,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>98</v>
@@ -7552,16 +7549,16 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="23" t="s">
         <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>99</v>
@@ -7572,11 +7569,11 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="23" t="s">
         <v>53</v>
       </c>
@@ -7592,11 +7589,11 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="23" t="s">
         <v>54</v>
       </c>
@@ -7612,11 +7609,11 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="23" t="s">
         <v>77</v>
       </c>
@@ -7629,11 +7626,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="23" t="s">
         <v>55</v>
       </c>
@@ -7649,11 +7646,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="23" t="s">
         <v>78</v>
       </c>
@@ -7672,19 +7669,19 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+      <c r="A20" s="43">
         <v>6</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="43" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="23" t="s">
@@ -7701,11 +7698,11 @@
       <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="23" t="s">
         <v>20</v>
       </c>
@@ -7720,11 +7717,11 @@
       <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="23" t="s">
         <v>52</v>
       </c>
@@ -7739,11 +7736,11 @@
       <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="24" t="s">
         <v>81</v>
       </c>
@@ -7758,19 +7755,19 @@
       <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+      <c r="A24" s="43">
         <v>7</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="43" t="s">
         <v>67</v>
       </c>
       <c r="F24" s="24" t="s">
@@ -7787,11 +7784,11 @@
       <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="24" t="s">
         <v>84</v>
       </c>
@@ -7806,11 +7803,11 @@
       <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="24" t="s">
         <v>85</v>
       </c>
@@ -7825,11 +7822,11 @@
       <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="24" t="s">
         <v>86</v>
       </c>
@@ -7844,11 +7841,11 @@
       <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="24" t="s">
         <v>87</v>
       </c>
@@ -7863,19 +7860,19 @@
       <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="26">
+      <c r="A29" s="43">
         <v>8</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="43" t="s">
         <v>67</v>
       </c>
       <c r="F29" s="24" t="s">
@@ -7892,11 +7889,11 @@
       <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="24" t="s">
         <v>89</v>
       </c>
@@ -7911,11 +7908,11 @@
       <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="24" t="s">
         <v>20</v>
       </c>
@@ -7930,11 +7927,11 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="24" t="s">
         <v>52</v>
       </c>
@@ -7949,11 +7946,11 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="24" t="s">
         <v>90</v>
       </c>
@@ -7968,19 +7965,19 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
+      <c r="A34" s="43">
         <v>9</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="43" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="24" t="s">
@@ -7997,11 +7994,11 @@
       <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="24" t="s">
         <v>20</v>
       </c>
@@ -8016,11 +8013,11 @@
       <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="24" t="s">
         <v>52</v>
       </c>
@@ -8035,11 +8032,11 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="24" t="s">
         <v>92</v>
       </c>
@@ -8054,11 +8051,11 @@
       <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="24" t="s">
         <v>93</v>
       </c>
@@ -9164,23 +9161,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="C24:C28"/>
@@ -9196,6 +9176,23 @@
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -9234,7 +9231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>

--- a/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
+++ b/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -365,9 +365,6 @@
     <t xml:space="preserve">Ver Adjunto </t>
   </si>
   <si>
-    <t xml:space="preserve">Acciones </t>
-  </si>
-  <si>
     <t xml:space="preserve">ver Adjuntos </t>
   </si>
   <si>
@@ -432,6 +429,25 @@
   </si>
   <si>
     <t xml:space="preserve">No se visualizan faltas de ortografia </t>
+  </si>
+  <si>
+    <t>Homologar los campos de información para agregar registros ya que Administración Pública del Estado APE no se encuentra en la información donde se extrae la información 
+Al darle clic en agregar arroja un mensaje de una falla, donde anuncia que la tabla no existe</t>
+  </si>
+  <si>
+    <t>https://sfytgenl.atlassian.net/browse/SICSA-295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado de Auditoria </t>
+  </si>
+  <si>
+    <t>Homologar los campos de información para agregar registros que no sean obligatorios  al momento de capturar debido a que no todo el contenido viene en el excel donde se extrae la información requerida</t>
+  </si>
+  <si>
+    <t> 0000117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No permite carga de archivo </t>
   </si>
 </sst>
 </file>
@@ -755,7 +771,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -806,6 +822,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,10 +880,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1011,7 +1033,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1505,9 +1526,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1571,9 +1590,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1637,9 +1654,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1760,9 +1775,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1783,9 +1796,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1806,9 +1817,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -7179,10 +7188,10 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7203,94 +7212,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -7465,19 +7474,19 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="44">
+      <c r="A11" s="27">
         <v>5</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -7495,11 +7504,11 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="23" t="s">
         <v>19</v>
       </c>
@@ -7507,7 +7516,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>57</v>
@@ -7522,18 +7531,18 @@
         <v>27</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N12" s="1">
         <v>45156</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="23" t="s">
         <v>20</v>
       </c>
@@ -7541,7 +7550,7 @@
         <v>16</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>58</v>
@@ -7549,11 +7558,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="23" t="s">
         <v>52</v>
       </c>
@@ -7561,7 +7570,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>59</v>
@@ -7569,11 +7578,11 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="23" t="s">
         <v>53</v>
       </c>
@@ -7581,7 +7590,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>60</v>
@@ -7589,11 +7598,11 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="23" t="s">
         <v>54</v>
       </c>
@@ -7601,7 +7610,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>61</v>
@@ -7609,11 +7618,11 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="23" t="s">
         <v>77</v>
       </c>
@@ -7621,16 +7630,16 @@
         <v>16</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="23" t="s">
         <v>55</v>
       </c>
@@ -7638,7 +7647,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>62</v>
@@ -7646,11 +7655,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="23" t="s">
         <v>78</v>
       </c>
@@ -7658,7 +7667,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I19" s="23" t="s">
         <v>63</v>
@@ -7669,109 +7678,103 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="43">
+      <c r="A20" s="26">
         <v>6</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
       <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="23" t="s">
         <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="24" t="s">
         <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="43">
+      <c r="A24" s="26">
         <v>7</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="43" t="s">
+      <c r="C24" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
         <v>24</v>
@@ -7779,18 +7782,16 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
         <v>24</v>
@@ -7798,18 +7799,16 @@
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s">
         <v>24</v>
@@ -7817,18 +7816,16 @@
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s">
         <v>24</v>
@@ -7836,18 +7833,16 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
       <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
         <v>24</v>
@@ -7855,47 +7850,57 @@
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="43">
+    <row r="29" spans="1:14" ht="99" x14ac:dyDescent="0.3">
+      <c r="A29" s="26">
         <v>8</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="43" t="s">
+      <c r="C29" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
         <v>24</v>
@@ -7903,16 +7908,14 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="24" t="s">
         <v>20</v>
       </c>
@@ -7922,16 +7925,14 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="24" t="s">
         <v>52</v>
       </c>
@@ -7941,18 +7942,16 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
       <c r="M32" s="24"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
         <v>24</v>
@@ -7960,45 +7959,58 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
       <c r="M33" s="24"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="43">
+    <row r="34" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+      <c r="A34" s="26">
         <v>9</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="43" t="s">
+      <c r="C34" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
+        <v>23</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="N34" s="1">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="24" t="s">
         <v>20</v>
       </c>
@@ -8008,16 +8020,14 @@
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
       <c r="M35" s="24"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="24" t="s">
         <v>52</v>
       </c>
@@ -8027,18 +8037,16 @@
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
       <c r="M36" s="24"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s">
         <v>24</v>
@@ -8046,18 +8054,16 @@
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
       <c r="M37" s="24"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" t="s">
         <v>24</v>
@@ -8065,15 +8071,13 @@
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
       <c r="M38" s="24"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>51</v>
@@ -8082,7 +8086,7 @@
         <v>67</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G39" t="s">
         <v>24</v>
@@ -8090,11 +8094,9 @@
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
       <c r="M39" s="24"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -8105,11 +8107,10 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -8120,11 +8121,10 @@
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -8135,11 +8135,10 @@
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -8150,11 +8149,10 @@
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -8169,7 +8167,7 @@
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
@@ -8184,7 +8182,7 @@
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -8199,7 +8197,7 @@
       <c r="L46" s="24"/>
       <c r="M46" s="24"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -8214,7 +8212,7 @@
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -9161,6 +9159,23 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="C24:C28"/>
@@ -9176,30 +9191,17 @@
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
     <hyperlink ref="M12" r:id="rId2"/>
+    <hyperlink ref="M34" r:id="rId3"/>
+    <hyperlink ref="M29" r:id="rId4"/>
+    <hyperlink ref="J29" r:id="rId5" tooltip="[asignada] Homologar información Obligatoria requerida en los botones Resultado de la auditoria y Notificación Área" display="http://10.200.4.202/view.php?id=117"/>
+    <hyperlink ref="J34" r:id="rId6" tooltip="[asignada] Homologar información Obligatoria requerida en los botones Resultado de la auditoria y Notificación Área" display="http://10.200.4.202/view.php?id=117"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -9213,13 +9215,13 @@
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K12 K14:K19</xm:sqref>
+          <xm:sqref>K6:K43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:L19 L111:L1048576</xm:sqref>
+          <xm:sqref>L111:L1048576 L1:L39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
+++ b/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="111">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t xml:space="preserve">No permite carga de archivo </t>
+  </si>
+  <si>
+    <t>https://sfytgenl.atlassian.net/browse/SICSA-190</t>
   </si>
 </sst>
 </file>
@@ -823,10 +826,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,10 +883,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7188,10 +7191,10 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7474,19 +7477,19 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="46">
         <v>5</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="45" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -7504,11 +7507,11 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="23" t="s">
         <v>19</v>
       </c>
@@ -7538,11 +7541,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="23" t="s">
         <v>20</v>
       </c>
@@ -7558,11 +7561,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="23" t="s">
         <v>52</v>
       </c>
@@ -7575,14 +7578,23 @@
       <c r="I14" s="23" t="s">
         <v>59</v>
       </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="23" t="s">
         <v>53</v>
       </c>
@@ -7598,11 +7610,11 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="23" t="s">
         <v>54</v>
       </c>
@@ -7618,11 +7630,11 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="23" t="s">
         <v>77</v>
       </c>
@@ -7635,11 +7647,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="23" t="s">
         <v>55</v>
       </c>
@@ -7655,11 +7667,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="23" t="s">
         <v>78</v>
       </c>
@@ -7678,19 +7690,19 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+      <c r="A20" s="45">
         <v>6</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="45" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="23" t="s">
@@ -7705,11 +7717,11 @@
       <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="23" t="s">
         <v>20</v>
       </c>
@@ -7722,11 +7734,11 @@
       <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="23" t="s">
         <v>52</v>
       </c>
@@ -7739,11 +7751,11 @@
       <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="24" t="s">
         <v>81</v>
       </c>
@@ -7758,19 +7770,19 @@
       <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+      <c r="A24" s="45">
         <v>7</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="45" t="s">
         <v>67</v>
       </c>
       <c r="F24" s="24" t="s">
@@ -7785,11 +7797,11 @@
       <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="24" t="s">
         <v>83</v>
       </c>
@@ -7802,11 +7814,11 @@
       <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="24" t="s">
         <v>84</v>
       </c>
@@ -7819,11 +7831,11 @@
       <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="24" t="s">
         <v>85</v>
       </c>
@@ -7836,11 +7848,11 @@
       <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="24" t="s">
         <v>86</v>
       </c>
@@ -7853,19 +7865,19 @@
       <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="99" x14ac:dyDescent="0.3">
-      <c r="A29" s="26">
+      <c r="A29" s="45">
         <v>8</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="45" t="s">
         <v>67</v>
       </c>
       <c r="F29" s="24" t="s">
@@ -7874,7 +7886,7 @@
       <c r="G29" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="26" t="s">
         <v>107</v>
       </c>
       <c r="I29" s="24" t="s">
@@ -7889,16 +7901,16 @@
       <c r="L29" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="46" t="s">
+      <c r="M29" s="27" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="24" t="s">
         <v>88</v>
       </c>
@@ -7911,11 +7923,11 @@
       <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="24" t="s">
         <v>20</v>
       </c>
@@ -7928,11 +7940,11 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="24" t="s">
         <v>52</v>
       </c>
@@ -7945,11 +7957,11 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="24" t="s">
         <v>89</v>
       </c>
@@ -7962,19 +7974,19 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
+      <c r="A34" s="45">
         <v>9</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="45" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="24" t="s">
@@ -7983,7 +7995,7 @@
       <c r="G34" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="26" t="s">
         <v>104</v>
       </c>
       <c r="I34" s="24" t="s">
@@ -7998,7 +8010,7 @@
       <c r="L34" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="46" t="s">
+      <c r="M34" s="27" t="s">
         <v>105</v>
       </c>
       <c r="N34" s="1">
@@ -8006,11 +8018,11 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="24" t="s">
         <v>20</v>
       </c>
@@ -8023,11 +8035,11 @@
       <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="24" t="s">
         <v>52</v>
       </c>
@@ -8040,11 +8052,11 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="24" t="s">
         <v>91</v>
       </c>
@@ -8057,11 +8069,11 @@
       <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="24" t="s">
         <v>92</v>
       </c>
@@ -9159,23 +9171,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="C24:C28"/>
@@ -9191,6 +9186,23 @@
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -9199,9 +9211,10 @@
     <hyperlink ref="M29" r:id="rId4"/>
     <hyperlink ref="J29" r:id="rId5" tooltip="[asignada] Homologar información Obligatoria requerida en los botones Resultado de la auditoria y Notificación Área" display="http://10.200.4.202/view.php?id=117"/>
     <hyperlink ref="J34" r:id="rId6" tooltip="[asignada] Homologar información Obligatoria requerida en los botones Resultado de la auditoria y Notificación Área" display="http://10.200.4.202/view.php?id=117"/>
+    <hyperlink ref="M14" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">

--- a/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
+++ b/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="120">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>Importar Plantilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver Adjuntos de Acciones </t>
   </si>
   <si>
     <t xml:space="preserve">Botón de Notificación Área </t>
@@ -441,9 +438,6 @@
     <t xml:space="preserve">Resultado de Auditoria </t>
   </si>
   <si>
-    <t>Homologar los campos de información para agregar registros que no sean obligatorios  al momento de capturar debido a que no todo el contenido viene en el excel donde se extrae la información requerida</t>
-  </si>
-  <si>
     <t> 0000117</t>
   </si>
   <si>
@@ -451,6 +445,39 @@
   </si>
   <si>
     <t>https://sfytgenl.atlassian.net/browse/SICSA-190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrega Registros </t>
+  </si>
+  <si>
+    <t>Ver Adjuntos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edita Registros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimina Registros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado de Audiroria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visor de Documentos </t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descargar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar Archivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No permite borrar el registro </t>
+  </si>
+  <si>
+    <t>eliminar el registro</t>
   </si>
 </sst>
 </file>
@@ -831,6 +858,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,12 +914,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5694,7 +5721,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45168.712912847222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N49" sheet="Catálogos"/>
+    <worksheetSource ref="A6:N54" sheet="Catálogos"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
@@ -7188,13 +7215,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11:C19"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7215,94 +7242,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="35" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -7477,19 +7504,19 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+      <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="28" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -7507,11 +7534,11 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="23" t="s">
         <v>19</v>
       </c>
@@ -7519,7 +7546,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>57</v>
@@ -7534,18 +7561,18 @@
         <v>27</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N12" s="1">
         <v>45156</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="23" t="s">
         <v>20</v>
       </c>
@@ -7553,7 +7580,7 @@
         <v>16</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>58</v>
@@ -7561,11 +7588,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="23" t="s">
         <v>52</v>
       </c>
@@ -7573,7 +7600,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>59</v>
@@ -7585,16 +7612,16 @@
         <v>27</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="23" t="s">
         <v>53</v>
       </c>
@@ -7602,7 +7629,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>60</v>
@@ -7610,11 +7637,11 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="23" t="s">
         <v>54</v>
       </c>
@@ -7622,7 +7649,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>61</v>
@@ -7630,11 +7657,11 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="23" t="s">
         <v>77</v>
       </c>
@@ -7642,16 +7669,16 @@
         <v>16</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="23" t="s">
         <v>55</v>
       </c>
@@ -7659,7 +7686,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>62</v>
@@ -7667,11 +7694,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="23" t="s">
         <v>78</v>
       </c>
@@ -7679,7 +7706,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I19" s="23" t="s">
         <v>63</v>
@@ -7690,19 +7717,19 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
+      <c r="A20" s="28">
         <v>6</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="28" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="23" t="s">
@@ -7717,11 +7744,11 @@
       <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="23" t="s">
         <v>20</v>
       </c>
@@ -7734,11 +7761,11 @@
       <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="23" t="s">
         <v>52</v>
       </c>
@@ -7751,11 +7778,11 @@
       <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="24" t="s">
         <v>81</v>
       </c>
@@ -7763,26 +7790,26 @@
         <v>23</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
       <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="45">
+      <c r="A24" s="28">
         <v>7</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="28" t="s">
         <v>67</v>
       </c>
       <c r="F24" s="24" t="s">
@@ -7797,11 +7824,11 @@
       <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="24" t="s">
         <v>83</v>
       </c>
@@ -7814,11 +7841,11 @@
       <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="24" t="s">
         <v>84</v>
       </c>
@@ -7831,11 +7858,11 @@
       <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="24" t="s">
         <v>85</v>
       </c>
@@ -7848,11 +7875,11 @@
       <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="24" t="s">
         <v>86</v>
       </c>
@@ -7864,36 +7891,36 @@
       <c r="J28" s="24"/>
       <c r="M28" s="24"/>
     </row>
-    <row r="29" spans="1:14" ht="99" x14ac:dyDescent="0.3">
-      <c r="A29" s="45">
+    <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="28">
         <v>8</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="45" t="s">
+      <c r="C29" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="28" t="s">
         <v>67</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I29" s="24" t="s">
         <v>57</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s">
         <v>34</v>
@@ -7902,15 +7929,15 @@
         <v>26</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="24" t="s">
         <v>88</v>
       </c>
@@ -7923,47 +7950,55 @@
       <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="24" t="s">
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="J31" s="24"/>
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G32" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="H32" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="J32" s="24"/>
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="24" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G33" t="s">
         <v>24</v>
@@ -7973,61 +8008,45 @@
       <c r="J33" s="24"/>
       <c r="M33" s="24"/>
     </row>
-    <row r="34" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A34" s="45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="28">
         <v>9</v>
       </c>
-      <c r="B34" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="45" t="s">
+      <c r="B34" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="28" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="26" t="s">
-        <v>104</v>
+      <c r="H34" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K34" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="N34" s="1">
-        <v>45177</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -8035,16 +8054,13 @@
       <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -8052,16 +8068,13 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -8069,114 +8082,152 @@
       <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="M38" s="24"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="24" t="s">
+    <row r="39" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+      <c r="A39" s="28">
+        <v>9</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="28" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="N39" s="1">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="M39" s="24"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
-      <c r="L40" s="24"/>
       <c r="M40" s="24"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
-      <c r="L41" s="24"/>
       <c r="M41" s="24"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
-      <c r="L42" s="24"/>
       <c r="M42" s="24"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
-      <c r="L43" s="24"/>
       <c r="M43" s="24"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
+      <c r="C44" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
       <c r="M44" s="24"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -8190,7 +8241,6 @@
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
     </row>
@@ -8205,7 +8255,6 @@
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
       <c r="L46" s="24"/>
       <c r="M46" s="24"/>
     </row>
@@ -8220,7 +8269,6 @@
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
     </row>
@@ -8235,7 +8283,6 @@
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
     </row>
@@ -9169,33 +9216,92 @@
       <c r="L110" s="24"/>
       <c r="M110" s="24"/>
     </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="24"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="24"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
+      <c r="M114" s="24"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="24"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+      <c r="M115" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D29:D33"/>
     <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="B24:B28"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="E34:E38"/>
     <mergeCell ref="D34:D38"/>
     <mergeCell ref="C34:C38"/>
-    <mergeCell ref="A24:A28"/>
     <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="A11:A19"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:F4"/>
@@ -9203,14 +9309,35 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:N5"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="E29:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
     <hyperlink ref="M12" r:id="rId2"/>
-    <hyperlink ref="M34" r:id="rId3"/>
+    <hyperlink ref="M39" r:id="rId3"/>
     <hyperlink ref="M29" r:id="rId4"/>
     <hyperlink ref="J29" r:id="rId5" tooltip="[asignada] Homologar información Obligatoria requerida en los botones Resultado de la auditoria y Notificación Área" display="http://10.200.4.202/view.php?id=117"/>
-    <hyperlink ref="J34" r:id="rId6" tooltip="[asignada] Homologar información Obligatoria requerida en los botones Resultado de la auditoria y Notificación Área" display="http://10.200.4.202/view.php?id=117"/>
+    <hyperlink ref="J39" r:id="rId6" tooltip="[asignada] Homologar información Obligatoria requerida en los botones Resultado de la auditoria y Notificación Área" display="http://10.200.4.202/view.php?id=117"/>
     <hyperlink ref="M14" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9222,19 +9349,19 @@
           <x14:formula1>
             <xm:f>Datos!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G1:G33 G39:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K43</xm:sqref>
+          <xm:sqref>K6:K48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L111:L1048576 L1:L39</xm:sqref>
+          <xm:sqref>L116:L1048576 L1:L44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
+++ b/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
@@ -17,12 +17,12 @@
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Catálogos!$G$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Catálogos!$C$1:$C$134</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="133">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -365,18 +365,6 @@
     <t xml:space="preserve">Ver Adjunto </t>
   </si>
   <si>
-    <t xml:space="preserve">ver Adjuntos </t>
-  </si>
-  <si>
-    <t>Visualizar Adjunto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descargar Adjunto </t>
-  </si>
-  <si>
-    <t>Verificar Adjunto de Oficio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ver trazabilidad </t>
   </si>
   <si>
@@ -387,15 +375,6 @@
   </si>
   <si>
     <t xml:space="preserve">Botón de Notificación Área </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver Adjunto de Notificación de Área </t>
-  </si>
-  <si>
-    <t>Ver Contestación de Notificación de Área</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botón para Ver Plan de Trabajo de Auditorias </t>
   </si>
   <si>
     <t xml:space="preserve">Ingresar al Plan de Trabajo </t>
@@ -441,9 +420,6 @@
     <t> 0000117</t>
   </si>
   <si>
-    <t xml:space="preserve">No permite carga de archivo </t>
-  </si>
-  <si>
     <t>https://sfytgenl.atlassian.net/browse/SICSA-190</t>
   </si>
   <si>
@@ -459,25 +435,88 @@
     <t xml:space="preserve">Elimina Registros </t>
   </si>
   <si>
-    <t xml:space="preserve">Resultado de Audiroria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visor de Documentos </t>
-  </si>
-  <si>
-    <t>ver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descargar  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verificar Archivo </t>
   </si>
   <si>
-    <t xml:space="preserve">No permite borrar el registro </t>
-  </si>
-  <si>
-    <t>eliminar el registro</t>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>Carga un solo documento al a ves, tira un erro al querer cargar más de un documento a la vez, Tooltips descriptivos en campos de header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envió un mensaje de allerta al estar eliminando registros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se visualiza el archivo adjunto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descarga Documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica el archivo se puede confirmar y cancelar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se visualiza la trazabilidad de la operación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar Tooltips descriptivos en los headers de los campos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimina Resgistros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar Registros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direcciona a la ventana de visor de Documentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direcciona a ventana visor de docuemntos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga de Documentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimina Documentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se visualiza el Documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descarga de Documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acepta y Cancela y el documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver Adjuntos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contestación a Organo Auditor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar Entrega </t>
+  </si>
+  <si>
+    <t>Auditorias</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver Contestación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver adjunto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descargar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver Plan de Trabajo </t>
+  </si>
+  <si>
+    <t>https://sfytgenl.atlassian.net/browse/SICSA-419</t>
   </si>
 </sst>
 </file>
@@ -563,7 +602,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +619,24 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -801,7 +858,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -861,9 +918,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,6 +968,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5721,7 +5790,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45168.712912847222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N54" sheet="Catálogos"/>
+    <worksheetSource ref="A6:N71" sheet="Catálogos"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
@@ -6687,7 +6756,116 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Estatus de Prueba" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:D51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6796,8 +6974,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -6843,115 +7021,6 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Estatus de Prueba" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -7215,13 +7284,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7242,94 +7311,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="37" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -7504,7 +7573,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="A11" s="46">
         <v>5</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -7534,7 +7603,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -7546,7 +7615,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>57</v>
@@ -7561,14 +7630,14 @@
         <v>27</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N12" s="1">
         <v>45156</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -7580,7 +7649,7 @@
         <v>16</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>58</v>
@@ -7588,7 +7657,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -7600,7 +7669,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>59</v>
@@ -7612,12 +7681,14 @@
         <v>27</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N14" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="N14" s="1">
+        <v>45195</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -7629,7 +7700,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>60</v>
@@ -7637,7 +7708,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -7649,7 +7720,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>61</v>
@@ -7657,7 +7728,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
@@ -7669,12 +7740,12 @@
         <v>16</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
@@ -7686,7 +7757,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>62</v>
@@ -7694,7 +7765,7 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
@@ -7706,7 +7777,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I19" s="23" t="s">
         <v>63</v>
@@ -7723,7 +7794,7 @@
       <c r="B20" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="47" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="28" t="s">
@@ -7738,7 +7809,9 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="24" t="s">
+        <v>113</v>
+      </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
       <c r="M20" s="24"/>
@@ -7746,7 +7819,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="23" t="s">
@@ -7755,15 +7828,19 @@
       <c r="G21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="H21" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>115</v>
+      </c>
       <c r="J21" s="24"/>
       <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="23" t="s">
@@ -7772,28 +7849,34 @@
       <c r="G22" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="H22" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="J22" s="24"/>
       <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="24" t="s">
         <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+        <v>117</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="5"/>
       <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -7803,8 +7886,8 @@
       <c r="B24" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>82</v>
+      <c r="C24" s="48" t="s">
+        <v>123</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>51</v>
@@ -7813,180 +7896,213 @@
         <v>67</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="M24" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="5">
+        <v>120</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" s="1">
+        <v>45195</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="24" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>119</v>
+      </c>
       <c r="J25" s="24"/>
       <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="24" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="J26" s="24"/>
       <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="24" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="J27" s="24"/>
       <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="24" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="J28" s="24"/>
       <c r="M28" s="24"/>
     </row>
-    <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="28">
-        <v>8</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>67</v>
-      </c>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="24" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="26" t="s">
-        <v>109</v>
+      <c r="H29" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="I29" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="M29" s="24"/>
+    </row>
+    <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="28">
+        <v>8</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="J30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30" t="s">
         <v>34</v>
       </c>
-      <c r="L29" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="M30" s="24"/>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="24" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>111</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="24"/>
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="24" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J32" s="24"/>
       <c r="M32" s="24"/>
@@ -7994,213 +8110,268 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="24" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="J33" s="24"/>
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="28">
-        <v>9</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>67</v>
-      </c>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="24" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J34" s="24"/>
       <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+      <c r="A35" s="28">
+        <v>9</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="F35" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="M35" s="24"/>
+        <v>83</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J35" s="5">
+        <v>120</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="N35" s="1">
+        <v>45195</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>119</v>
+      </c>
       <c r="J36" s="24"/>
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="J37" s="24"/>
       <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
       <c r="F38" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
+        <v>130</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="J38" s="24"/>
       <c r="M38" s="24"/>
     </row>
-    <row r="39" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A39" s="28">
-        <v>9</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>67</v>
-      </c>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="24" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>103</v>
+        <v>16</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K39" t="s">
-        <v>34</v>
-      </c>
-      <c r="L39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="N39" s="1">
-        <v>45177</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="M39" s="24"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
       <c r="F40" s="24" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="J40" s="24"/>
       <c r="M40" s="24"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
+    <row r="41" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+      <c r="A41" s="28">
+        <v>10</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="F41" s="24" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="M41" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K41" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="27"/>
+      <c r="N41" s="1">
+        <v>45177</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="F42" s="24" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>115</v>
+      </c>
       <c r="J42" s="24"/>
       <c r="M42" s="24"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
       <c r="F43" s="24" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
@@ -8208,19 +8379,13 @@
       <c r="M43" s="24"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>67</v>
-      </c>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="24" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="G44" t="s">
         <v>24</v>
@@ -8231,287 +8396,452 @@
       <c r="M44" s="24"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
-      <c r="L45" s="24"/>
       <c r="M45" s="24"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
+      <c r="A46" s="28">
+        <v>11</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J46" s="5">
+        <v>120</v>
+      </c>
+      <c r="K46" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L46" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="N46" s="1">
+        <v>45195</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>119</v>
+      </c>
       <c r="J47" s="24"/>
-      <c r="L47" s="24"/>
       <c r="M47" s="24"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="J48" s="24"/>
-      <c r="L48" s="24"/>
       <c r="M48" s="24"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
       <c r="M49" s="24"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
       <c r="M50" s="24"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
       <c r="M51" s="24"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="28">
+        <v>12</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
       <c r="M52" s="24"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
       <c r="M53" s="24"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
       <c r="M54" s="24"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="28">
+        <v>13</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J55" s="5">
+        <v>120</v>
+      </c>
+      <c r="K55" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L55" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="N55" s="1">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>119</v>
+      </c>
       <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
       <c r="M56" s="24"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
       <c r="M57" s="24"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
       <c r="M58" s="24"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
       <c r="M59" s="24"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
       <c r="M60" s="24"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="20">
+        <v>14</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
       <c r="M61" s="24"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="20">
+        <v>15</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
+      <c r="G62" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H62" s="24"/>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="20">
+        <v>16</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
+      <c r="G63" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H63" s="24"/>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
@@ -8522,7 +8852,6 @@
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
     </row>
@@ -8537,7 +8866,6 @@
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
       <c r="L65" s="24"/>
       <c r="M65" s="24"/>
     </row>
@@ -9291,17 +9619,292 @@
       <c r="L115" s="24"/>
       <c r="M115" s="24"/>
     </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
+      <c r="M116" s="24"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="24"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
+      <c r="M119" s="24"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" s="24"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" s="24"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="24"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
+      <c r="M125" s="24"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="24"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="24"/>
+      <c r="L129" s="24"/>
+      <c r="M129" s="24"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="24"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="24"/>
+      <c r="L130" s="24"/>
+      <c r="M130" s="24"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="24"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
+      <c r="M131" s="24"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="24"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="24"/>
+      <c r="M132" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="B34:B38"/>
+  <autoFilter ref="C1:C134"/>
+  <mergeCells count="52">
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="A11:A19"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:F4"/>
@@ -9309,39 +9912,42 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:N5"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="A11:A19"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
     <hyperlink ref="M12" r:id="rId2"/>
-    <hyperlink ref="M39" r:id="rId3"/>
-    <hyperlink ref="M29" r:id="rId4"/>
-    <hyperlink ref="J29" r:id="rId5" tooltip="[asignada] Homologar información Obligatoria requerida en los botones Resultado de la auditoria y Notificación Área" display="http://10.200.4.202/view.php?id=117"/>
-    <hyperlink ref="J39" r:id="rId6" tooltip="[asignada] Homologar información Obligatoria requerida en los botones Resultado de la auditoria y Notificación Área" display="http://10.200.4.202/view.php?id=117"/>
-    <hyperlink ref="M14" r:id="rId7"/>
+    <hyperlink ref="M30" r:id="rId3"/>
+    <hyperlink ref="J30" r:id="rId4" tooltip="[asignada] Homologar información Obligatoria requerida en los botones Resultado de la auditoria y Notificación Área" display="http://10.200.4.202/view.php?id=117"/>
+    <hyperlink ref="J41" r:id="rId5" tooltip="[asignada] Homologar información Obligatoria requerida en los botones Resultado de la auditoria y Notificación Área" display="http://10.200.4.202/view.php?id=117"/>
+    <hyperlink ref="M14" r:id="rId6"/>
+    <hyperlink ref="J24" r:id="rId7" tooltip="[asignada] Observaciones Módulos Administración de Auditorias" display="http://10.200.4.202/view.php?id=120"/>
+    <hyperlink ref="J35" r:id="rId8" tooltip="[asignada] Observaciones Módulos Administración de Auditorias" display="http://10.200.4.202/view.php?id=120"/>
+    <hyperlink ref="J46" r:id="rId9" tooltip="[asignada] Observaciones Módulos Administración de Auditorias" display="http://10.200.4.202/view.php?id=120"/>
+    <hyperlink ref="J55" r:id="rId10" tooltip="[asignada] Observaciones Módulos Administración de Auditorias" display="http://10.200.4.202/view.php?id=120"/>
+    <hyperlink ref="M24" r:id="rId11"/>
+    <hyperlink ref="M35" r:id="rId12"/>
+    <hyperlink ref="M46" r:id="rId13"/>
+    <hyperlink ref="M55" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -9349,19 +9955,19 @@
           <x14:formula1>
             <xm:f>Datos!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G33 G39:G1048576</xm:sqref>
+          <xm:sqref>G1:G51 G53:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Datos!$C$2:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L133:L1048576 L1:L61</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K48</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Datos!$C$2:$C$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>L116:L1048576 L1:L44</xm:sqref>
+          <xm:sqref>K6:K65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
+++ b/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
@@ -12,17 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
   </bookViews>
   <sheets>
-    <sheet name="Catálogos" sheetId="8" r:id="rId1"/>
+    <sheet name="Administración Auditorias " sheetId="8" r:id="rId1"/>
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Catálogos!$C$1:$C$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Administración Auditorias '!$C$1:$C$134</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
-    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="17" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="133">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -915,8 +915,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -968,21 +983,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1132,6 +1132,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1625,7 +1626,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1689,7 +1692,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1753,7 +1758,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1874,7 +1881,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1895,7 +1904,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1916,7 +1927,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1999,13 +2012,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2179,6 +2192,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2397,18 +2411,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$25:$A$26</c:f>
+              <c:f>GRAFICOS!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tarea por hacer</c:v>
+                  <c:v>Total general</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$25:$B$26</c:f>
+              <c:f>GRAFICOS!$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2564,6 +2578,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3334,6 +3349,44 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1"/>
+              </a:gs>
+              <a:gs pos="75000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="51000">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                  <a:alpha val="15000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -3436,7 +3489,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tarea por hacer</c:v>
+                  <c:v>Finalizada </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3445,21 +3498,21 @@
             <a:gradFill flip="none" rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:gs>
                 <a:gs pos="75000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
                     <a:lumOff val="40000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="51000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:alpha val="75000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:lumMod val="20000"/>
                     <a:lumOff val="80000"/>
                     <a:alpha val="15000"/>
@@ -3495,7 +3548,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3647,6 +3700,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5718,83 +5772,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45168.712261689812" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45195.643692129626" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="65">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N19" sheet="Catálogos"/>
+    <worksheetSource ref="A6:N71" sheet="Administración Auditorias "/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
-    </cacheField>
-    <cacheField name="Menús" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Submenú" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Perfil" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Usuario " numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Acción" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Estatus de Prueba" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
-        <s v="Realizado"/>
-        <s v="Error"/>
-        <m u="1"/>
-        <s v="Pendiente" u="1"/>
-        <s v="Ingresar " u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Resultado Obtenido" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Resultado Esperado" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="N° de Indicente" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="103" maxValue="103"/>
-    </cacheField>
-    <cacheField name="Desarrollador" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <m/>
-        <s v="Leslie Lucio "/>
-        <s v="Noe Treviño" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Estatus Incidente" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <m/>
-        <s v="Tarea por hacer"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="N° de Tarea Jira" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Fecha " numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-08-18T00:00:00" maxDate="2023-08-19T00:00:00"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45168.712912847222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N71" sheet="Catálogos"/>
-  </cacheSource>
-  <cacheFields count="14">
-    <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
     </cacheField>
     <cacheField name="Menús" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5820,13 +5804,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Resultado Obtenido" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" longText="1"/>
     </cacheField>
     <cacheField name="Resultado Esperado" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="N° de Indicente" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="103" maxValue="103"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="103" maxValue="120"/>
     </cacheField>
     <cacheField name="Desarrollador" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5838,7 +5822,72 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Fecha " numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-08-18T00:00:00" maxDate="2023-08-19T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-08-18T00:00:00" maxDate="2023-09-27T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45195.643692361111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A6:N19" sheet="Administración Auditorias "/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="N° Caso" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Menús" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Submenú" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Perfil" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Usuario " numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Acción" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Estatus de Prueba" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Resultado Obtenido" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Resultado Esperado" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="N° de Indicente" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="103" maxValue="103"/>
+    </cacheField>
+    <cacheField name="Desarrollador" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <m/>
+        <s v="Leslie Lucio "/>
+        <s v="Noe Treviño" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Estatus Incidente" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <m/>
+        <s v="Finalizada "/>
+        <s v="Tarea por hacer" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="N° de Tarea Jira" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Fecha " numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-08-18T00:00:00" maxDate="2023-09-27T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5850,7 +5899,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="13">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="65">
   <r>
     <n v="1"/>
     <s v="Ingresar sitio web"/>
@@ -5862,8 +5911,8 @@
     <s v="Ingresa al sitio wed correspondiente "/>
     <s v="Ingresar "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <m/>
     <m/>
     <d v="2023-08-18T00:00:00"/>
   </r>
@@ -5878,8 +5927,8 @@
     <s v="Direcciona "/>
     <s v="Ingresar "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -5894,8 +5943,8 @@
     <s v="Ingresar a  la plataforma"/>
     <s v="Ingresar plataforma PAUA"/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -5910,8 +5959,8 @@
     <s v="Ingresa al menú correctamente"/>
     <s v="Ingresar al Menú Catálogos "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -5926,19 +5975,1064 @@
     <s v="Ingresa al catálogo"/>
     <s v="Ingresar al catálogo"/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Agregar"/>
+    <x v="0"/>
+    <s v="Falla al agregar registro, no direcciona a página principal. Ademas de registrar el mismo registro varias veces. "/>
+    <s v="Agrega Registro "/>
+    <n v="103"/>
+    <s v="Leslie Lucio "/>
+    <s v="Finalizada "/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-182"/>
+    <d v="2023-08-18T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="0"/>
+    <s v="el mensaje de confirmación dice consulta exitosa y no y no la acción que acaba de realizar Actualizar el Registro con éxito. "/>
+    <s v="Edita Registro "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Al momento de eliminar el registro arroja dos mensajes de confirmación "/>
+    <s v="Elimina Registro "/>
+    <m/>
+    <s v="Leslie Lucio "/>
+    <s v="Finalizada "/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-190"/>
+    <d v="2023-09-26T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Buscar "/>
+    <x v="0"/>
+    <s v="Busca Registros requerido "/>
+    <s v="Buscar registros "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Filtrado "/>
+    <x v="0"/>
+    <s v="Filtra Registros "/>
+    <s v="Filtra registro con los caracteres requerido "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Exportar "/>
+    <x v="0"/>
+    <s v="Exporta Registros "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Filas por Página "/>
+    <x v="0"/>
+    <s v="Filtra por Paginación "/>
+    <s v="Filtra por Pagina "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ortografía"/>
+    <x v="0"/>
+    <s v="No se visualizan faltas de ortografia "/>
+    <s v="Buena Ortografía "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2023-08-18T00:00:00"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Auditorias "/>
+    <s v="Ver Oficios "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Agregar"/>
+    <x v="0"/>
+    <s v="Agregar Tooltips descriptivos en los headers de los campos "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="0"/>
+    <s v="Edita Registros "/>
+    <s v="Editar Registros "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Resgistros "/>
+    <s v="Elimina Registros "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver Adjunto "/>
+    <x v="0"/>
+    <s v="Direcciona a ventana visor de docuemntos "/>
+    <s v="Direcciona a la ventana de visor de Documentos "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Auditorias "/>
+    <s v="Ver Adjuntos "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Cargar Documentos "/>
+    <x v="1"/>
+    <s v="Carga un solo documento al a ves, tira un erro al querer cargar más de un documento a la vez, Tooltips descriptivos en campos de header"/>
+    <s v="Carga de Documentos "/>
+    <n v="120"/>
+    <s v="Leslie Lucio "/>
+    <s v="Tarea por hacer"/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-419"/>
+    <d v="2023-09-26T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="1"/>
+    <s v="Envió un mensaje de allerta al estar eliminando registros "/>
+    <s v="Elimina Documentos "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver"/>
+    <x v="0"/>
+    <s v="Se visualiza el archivo adjunto "/>
+    <s v="Se visualiza el Documento "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Descargar "/>
+    <x v="0"/>
+    <s v="Descarga Documento "/>
+    <s v="Descarga de Documento "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Verificar Archivo "/>
+    <x v="0"/>
+    <s v="Verifica el archivo se puede confirmar y cancelar "/>
+    <s v="Acepta y Cancela y el documento "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver trazabilidad "/>
+    <x v="0"/>
+    <s v="Se visualiza la trazabilidad de la operación "/>
+    <s v="Se visualiza la trazabilidad de la operación "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Auditorias "/>
+    <s v="Resultado de Auditoria "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Agregar"/>
+    <x v="0"/>
+    <s v="Agrega Registros "/>
+    <s v="Agrega Registro "/>
+    <s v=" 0000117"/>
+    <s v="Adolfo García"/>
+    <s v="Finalizada "/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-295"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Importar Plantilla"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="0"/>
+    <s v="Edita Registros "/>
+    <s v="Edita Registros "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Elimina Registros "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver Adjuntos"/>
+    <x v="0"/>
+    <s v="Direcciona a ventana visor de docuemntos "/>
+    <s v="Direcciona a la ventana de visor de Documentos "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Auditorias "/>
+    <s v="Ver Adjuntos "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Cargar Documentos "/>
+    <x v="1"/>
+    <s v="Carga un solo documento al a ves, tira un erro al querer cargar más de un documento a la vez, Tooltips descriptivos en campos de header"/>
+    <s v="Carga de Documentos "/>
+    <n v="120"/>
+    <s v="Leslie Lucio "/>
+    <s v="Tarea por hacer"/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-419"/>
+    <d v="2023-09-26T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="1"/>
+    <s v="Envió un mensaje de allerta al estar eliminando registros "/>
+    <s v="Elimina Documentos "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver"/>
+    <x v="0"/>
+    <s v="Se visualiza el archivo adjunto "/>
+    <s v="Se visualiza el Documento "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Descargar "/>
+    <x v="0"/>
+    <s v="Descarga Documento "/>
+    <s v="Descarga de Documento "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Verificar Archivo "/>
+    <x v="0"/>
+    <s v="Verifica el archivo se puede confirmar y cancelar "/>
+    <s v="Acepta y Cancela y el documento "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver trazabilidad "/>
+    <x v="0"/>
+    <s v="Se visualiza la trazabilidad de la operación "/>
+    <s v="Se visualiza la trazabilidad de la operación "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Auditorias "/>
+    <s v="Botón de Notificación Área "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Agregar"/>
+    <x v="0"/>
+    <s v="Homologar los campos de información para agregar registros ya que Administración Pública del Estado APE no se encuentra en la información donde se extrae la información _x000a_Al darle clic en agregar arroja un mensaje de una falla, donde anuncia que la tabla no existe"/>
+    <s v="Agrega Registro "/>
+    <s v=" 0000117"/>
+    <s v="Adolfo García"/>
+    <s v="Tarea por hacer"/>
+    <m/>
+    <d v="2023-09-08T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="0"/>
+    <s v="Edita Registros "/>
+    <s v="Editar Registros "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver Contestación "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver Adjunto "/>
+    <x v="0"/>
+    <s v="Direcciona a ventana visor de docuemntos "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Auditorias "/>
+    <s v="Ver Adjuntos "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Cargar Documentos "/>
+    <x v="1"/>
+    <s v="Carga un solo documento al a ves, tira un erro al querer cargar más de un documento a la vez, Tooltips descriptivos en campos de header"/>
+    <s v="Carga de Documentos "/>
+    <n v="120"/>
+    <s v="Leslie Lucio "/>
+    <s v="Tarea por hacer"/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-419"/>
+    <d v="2023-09-26T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="1"/>
+    <s v="Envió un mensaje de allerta al estar eliminando registros "/>
+    <s v="Elimina Documentos "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver"/>
+    <x v="0"/>
+    <s v="Se visualiza el archivo adjunto "/>
+    <s v="Se visualiza el Documento "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Descargar "/>
+    <x v="0"/>
+    <s v="Descarga Documento "/>
+    <s v="Descarga de Documento "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Verificar Archivo "/>
+    <x v="0"/>
+    <s v="Verifica el archivo se puede confirmar y cancelar "/>
+    <s v="Acepta y Cancela y el documento "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver trazabilidad "/>
+    <x v="0"/>
+    <s v="Se visualiza la trazabilidad de la operación "/>
+    <s v="Se visualiza la trazabilidad de la operación "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Auditorias "/>
+    <s v="Ver Contestación "/>
+    <s v="Administrador"/>
+    <s v="disrec"/>
+    <s v="Editar"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver Adjunto "/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Auditorias "/>
+    <s v="Ver Adjuntos "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Cargar Documentos "/>
+    <x v="1"/>
+    <s v="Carga un solo documento al a ves, tira un erro al querer cargar más de un documento a la vez, Tooltips descriptivos en campos de header"/>
+    <s v="Carga de Documentos "/>
+    <n v="120"/>
+    <s v="Leslie Lucio "/>
+    <s v="Tarea por hacer"/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-419"/>
+    <d v="2023-09-26T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="1"/>
+    <s v="Envió un mensaje de allerta al estar eliminando registros "/>
+    <s v="Elimina Documentos "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver"/>
+    <x v="0"/>
+    <s v="Se visualiza el archivo adjunto "/>
+    <s v="Se visualiza el Documento "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Descargar "/>
+    <x v="0"/>
+    <s v="Descarga Documento "/>
+    <s v="Descarga de Documento "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Verificar Archivo "/>
+    <x v="0"/>
+    <s v="Verifica el archivo se puede confirmar y cancelar "/>
+    <s v="Acepta y Cancela y el documento "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ver trazabilidad "/>
+    <x v="0"/>
+    <s v="Se visualiza la trazabilidad de la operación "/>
+    <s v="Se visualiza la trazabilidad de la operación "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Auditorias "/>
+    <s v="Ver Plan de Trabajo "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar al Plan de Trabajo "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Auditorias "/>
+    <s v="Contestación a Organo Auditor "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Auditorias"/>
+    <s v="Cambiar Entrega "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="13">
+  <r>
+    <n v="1"/>
+    <s v="Ingresar sitio web"/>
+    <s v="http://10.200.4.165/"/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar "/>
+    <s v="Realizado"/>
+    <s v="Ingresa al sitio wed correspondiente "/>
+    <s v="Ingresar "/>
+    <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-08-18T00:00:00"/>
   </r>
   <r>
+    <n v="2"/>
+    <s v="Ingresar las Credenciales "/>
+    <s v="disrec"/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar "/>
+    <s v="Realizado"/>
+    <s v="Direcciona "/>
+    <s v="Ingresar "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Aplicación Auditorias "/>
+    <m/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar "/>
+    <s v="Realizado"/>
+    <s v="Ingresar a  la plataforma"/>
+    <s v="Ingresar plataforma PAUA"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Principal "/>
+    <s v="Administración de Auditorias "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Pantalla Inicio "/>
+    <s v="Realizado"/>
+    <s v="Ingresa al menú correctamente"/>
+    <s v="Ingresar al Menú Catálogos "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Aplicación Auditorias "/>
+    <s v="Auditorías"/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar "/>
+    <s v="Realizado"/>
+    <s v="Ingresa al catálogo"/>
+    <s v="Ingresar al catálogo"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
     <m/>
     <m/>
     <s v="Agregar"/>
-    <x v="1"/>
+    <s v="Realizado"/>
     <s v="Falla al agregar registro, no direcciona a página principal. Ademas de registrar el mismo registro varias veces. "/>
     <s v="Agrega Registro "/>
     <n v="103"/>
@@ -5954,7 +7048,7 @@
     <m/>
     <m/>
     <s v="Editar"/>
-    <x v="1"/>
+    <s v="Realizado"/>
     <s v="el mensaje de confirmación dice consulta exitosa y no y no la acción que acaba de realizar Actualizar el Registro con éxito. "/>
     <s v="Edita Registro "/>
     <m/>
@@ -5970,10 +7064,26 @@
     <m/>
     <m/>
     <s v="Eliminar "/>
-    <x v="1"/>
+    <s v="Realizado"/>
     <s v="Al momento de eliminar el registro arroja dos mensajes de confirmación "/>
     <s v="Elimina Registro "/>
     <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-190"/>
+    <d v="2023-09-26T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Buscar "/>
+    <s v="Realizado"/>
+    <s v="Busca Registros requerido "/>
+    <s v="Buscar registros "/>
+    <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5985,10 +7095,10 @@
     <m/>
     <m/>
     <m/>
-    <s v="Buscar "/>
-    <x v="0"/>
-    <s v="Busca Registros requerido "/>
-    <s v="Buscar registros "/>
+    <s v="Filtrado "/>
+    <s v="Realizado"/>
+    <s v="Filtra Registros "/>
+    <s v="Filtra registro con los caracteres requerido "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -6001,10 +7111,10 @@
     <m/>
     <m/>
     <m/>
-    <s v="Filtrado "/>
-    <x v="0"/>
-    <s v="Filtra Registros "/>
-    <s v="Filtra registro con los caracteres requerido "/>
+    <s v="Exportar "/>
+    <s v="Realizado"/>
+    <s v="Exporta Registros "/>
+    <m/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -6017,10 +7127,10 @@
     <m/>
     <m/>
     <m/>
-    <s v="Exportar "/>
-    <x v="0"/>
-    <s v="Exporta Registros "/>
-    <m/>
+    <s v="Filas por Página "/>
+    <s v="Realizado"/>
+    <s v="Filtra por Paginación "/>
+    <s v="Filtra por Pagina "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -6033,24 +7143,8 @@
     <m/>
     <m/>
     <m/>
-    <s v="Filas por Página "/>
-    <x v="0"/>
-    <s v="Filtra por Paginación "/>
-    <s v="Filtra por Pagina "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
     <s v="Ortografía"/>
-    <x v="0"/>
+    <s v="Realizado"/>
     <s v="No se visualizan faltas de ortografia "/>
     <s v="Buena Ortografía "/>
     <m/>
@@ -6062,701 +7156,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="43">
-  <r>
-    <n v="1"/>
-    <s v="Ingresar sitio web"/>
-    <s v="http://10.200.4.165/"/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al sitio wed correspondiente "/>
-    <s v="Ingresar "/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <d v="2023-08-18T00:00:00"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <s v="Ingresar las Credenciales "/>
-    <s v="disrec"/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Direcciona "/>
-    <s v="Ingresar "/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="3"/>
-    <s v="Aplicación Auditorias "/>
-    <m/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresar a  la plataforma"/>
-    <s v="Ingresar plataforma PAUA"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="4"/>
-    <s v="Principal "/>
-    <s v="Administración de Auditorias "/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Pantalla Inicio "/>
-    <x v="0"/>
-    <s v="Ingresa al menú correctamente"/>
-    <s v="Ingresar al Menú Catálogos "/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="5"/>
-    <s v="Aplicación Auditorias "/>
-    <s v="Auditorías"/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al catálogo"/>
-    <s v="Ingresar al catálogo"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Falla al agregar registro, no direcciona a página principal. Ademas de registrar el mismo registro varias veces. "/>
-    <s v="Agrega Registro "/>
-    <n v="103"/>
-    <s v="Leslie Lucio "/>
-    <s v="Tarea por hacer"/>
-    <s v="https://sfytgenl.atlassian.net/browse/SICSA-182"/>
-    <d v="2023-08-18T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="el mensaje de confirmación dice consulta exitosa y no y no la acción que acaba de realizar Actualizar el Registro con éxito. "/>
-    <s v="Edita Registro "/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar "/>
-    <x v="1"/>
-    <s v="Al momento de eliminar el registro arroja dos mensajes de confirmación "/>
-    <s v="Elimina Registro "/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Buscar "/>
-    <x v="0"/>
-    <s v="Busca Registros requerido "/>
-    <s v="Buscar registros "/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Filtrado "/>
-    <x v="0"/>
-    <s v="Filtra Registros "/>
-    <s v="Filtra registro con los caracteres requerido "/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar "/>
-    <x v="0"/>
-    <s v="Exporta Registros "/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Filas por Página "/>
-    <x v="0"/>
-    <s v="Filtra por Paginación "/>
-    <s v="Filtra por Pagina "/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="0"/>
-    <s v="No se visualizan faltas de ortografia "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <d v="2023-08-18T00:00:00"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <s v="Auditorias "/>
-    <s v="Ver Oficios "/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Agregar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar "/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ver Adjunto "/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="7"/>
-    <s v="Auditorias "/>
-    <s v="ver Adjuntos "/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Cargar Documentos "/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Visualizar Adjunto"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Descargar Adjunto "/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Verificar Adjunto de Oficio"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ver trazabilidad "/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="8"/>
-    <s v="Auditorias "/>
-    <s v="Acciones "/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Agregar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Importar Plantilla"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar "/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ver Adjuntos de Acciones "/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="9"/>
-    <s v="Auditorias "/>
-    <s v="Botón de Notificación Área "/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Agregar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar "/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ver Adjunto de Notificación de Área "/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ver Contestación de Notificación de Área"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <s v="Botón para Ver Plan de Trabajo de Auditorias "/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Ingresar al Plan de Trabajo "/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6865,7 +7266,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:D51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6887,8 +7288,9 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
+        <item m="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -6918,7 +7320,7 @@
       <x/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -6975,8 +7377,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -6990,9 +7392,10 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="4">
         <item h="1" x="0"/>
-        <item x="1"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7002,10 +7405,7 @@
   <rowFields count="1">
     <field x="11"/>
   </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="1">
     <i t="grand">
       <x/>
     </i>
@@ -7311,94 +7711,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="36" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -7573,19 +7973,19 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+      <c r="A11" s="33">
         <v>5</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -7603,11 +8003,11 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="23" t="s">
         <v>19</v>
       </c>
@@ -7637,11 +8037,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="23" t="s">
         <v>20</v>
       </c>
@@ -7657,11 +8057,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="23" t="s">
         <v>52</v>
       </c>
@@ -7688,11 +8088,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="23" t="s">
         <v>53</v>
       </c>
@@ -7708,11 +8108,11 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="23" t="s">
         <v>54</v>
       </c>
@@ -7728,11 +8128,11 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="23" t="s">
         <v>77</v>
       </c>
@@ -7745,11 +8145,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="23" t="s">
         <v>55</v>
       </c>
@@ -7765,11 +8165,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="23" t="s">
         <v>78</v>
       </c>
@@ -7788,19 +8188,19 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
+      <c r="A20" s="29">
         <v>6</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="23" t="s">
@@ -7817,11 +8217,11 @@
       <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="23" t="s">
         <v>20</v>
       </c>
@@ -7838,11 +8238,11 @@
       <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="23" t="s">
         <v>52</v>
       </c>
@@ -7859,11 +8259,11 @@
       <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="24" t="s">
         <v>81</v>
       </c>
@@ -7880,19 +8280,19 @@
       <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="28">
+      <c r="A24" s="29">
         <v>7</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F24" s="24" t="s">
@@ -7916,7 +8316,7 @@
       <c r="L24" t="s">
         <v>26</v>
       </c>
-      <c r="M24" s="50" t="s">
+      <c r="M24" s="28" t="s">
         <v>132</v>
       </c>
       <c r="N24" s="1">
@@ -7924,11 +8324,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="24" t="s">
         <v>52</v>
       </c>
@@ -7945,11 +8345,11 @@
       <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="24" t="s">
         <v>106</v>
       </c>
@@ -7966,11 +8366,11 @@
       <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="24" t="s">
         <v>130</v>
       </c>
@@ -7987,11 +8387,11 @@
       <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="24" t="s">
         <v>105</v>
       </c>
@@ -8008,11 +8408,11 @@
       <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="24" t="s">
         <v>82</v>
       </c>
@@ -8029,19 +8429,19 @@
       <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="28">
+      <c r="A30" s="29">
         <v>8</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F30" s="24" t="s">
@@ -8070,11 +8470,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="24" t="s">
         <v>84</v>
       </c>
@@ -8087,11 +8487,11 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="24" t="s">
         <v>20</v>
       </c>
@@ -8108,11 +8508,11 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="24" t="s">
         <v>52</v>
       </c>
@@ -8129,11 +8529,11 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="24" t="s">
         <v>102</v>
       </c>
@@ -8150,19 +8550,19 @@
       <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="28">
+      <c r="A35" s="29">
         <v>9</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F35" s="24" t="s">
@@ -8186,7 +8586,7 @@
       <c r="L35" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="50" t="s">
+      <c r="M35" s="28" t="s">
         <v>132</v>
       </c>
       <c r="N35" s="1">
@@ -8194,11 +8594,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
       <c r="F36" s="24" t="s">
         <v>52</v>
       </c>
@@ -8215,11 +8615,11 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="24" t="s">
         <v>106</v>
       </c>
@@ -8236,11 +8636,11 @@
       <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="24" t="s">
         <v>130</v>
       </c>
@@ -8257,11 +8657,11 @@
       <c r="M38" s="24"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="24" t="s">
         <v>105</v>
       </c>
@@ -8278,11 +8678,11 @@
       <c r="M39" s="24"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
       <c r="F40" s="24" t="s">
         <v>82</v>
       </c>
@@ -8299,19 +8699,19 @@
       <c r="M40" s="24"/>
     </row>
     <row r="41" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A41" s="28">
+      <c r="A41" s="29">
         <v>10</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F41" s="24" t="s">
@@ -8341,11 +8741,11 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="24" t="s">
         <v>20</v>
       </c>
@@ -8362,11 +8762,11 @@
       <c r="M42" s="24"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
       <c r="F43" s="24" t="s">
         <v>52</v>
       </c>
@@ -8379,11 +8779,11 @@
       <c r="M43" s="24"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
       <c r="F44" s="24" t="s">
         <v>128</v>
       </c>
@@ -8396,11 +8796,11 @@
       <c r="M44" s="24"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
       <c r="F45" s="24" t="s">
         <v>81</v>
       </c>
@@ -8415,19 +8815,19 @@
       <c r="M45" s="24"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="28">
+      <c r="A46" s="29">
         <v>11</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F46" s="24" t="s">
@@ -8451,7 +8851,7 @@
       <c r="L46" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M46" s="50" t="s">
+      <c r="M46" s="28" t="s">
         <v>132</v>
       </c>
       <c r="N46" s="1">
@@ -8459,11 +8859,11 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
       <c r="F47" s="24" t="s">
         <v>52</v>
       </c>
@@ -8480,11 +8880,11 @@
       <c r="M47" s="24"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
       <c r="F48" s="24" t="s">
         <v>106</v>
       </c>
@@ -8501,11 +8901,11 @@
       <c r="M48" s="24"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
       <c r="F49" s="24" t="s">
         <v>130</v>
       </c>
@@ -8522,11 +8922,11 @@
       <c r="M49" s="24"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
       <c r="F50" s="24" t="s">
         <v>105</v>
       </c>
@@ -8543,11 +8943,11 @@
       <c r="M50" s="24"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
       <c r="F51" s="24" t="s">
         <v>82</v>
       </c>
@@ -8564,19 +8964,19 @@
       <c r="M51" s="24"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="28">
+      <c r="A52" s="29">
         <v>12</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F52" s="24" t="s">
@@ -8586,11 +8986,11 @@
       <c r="M52" s="24"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="24" t="s">
         <v>52</v>
       </c>
@@ -8600,11 +9000,11 @@
       <c r="M53" s="24"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
       <c r="F54" s="24" t="s">
         <v>129</v>
       </c>
@@ -8614,19 +9014,19 @@
       <c r="M54" s="24"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="28">
+      <c r="A55" s="29">
         <v>13</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F55" s="24" t="s">
@@ -8650,7 +9050,7 @@
       <c r="L55" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M55" s="50" t="s">
+      <c r="M55" s="28" t="s">
         <v>132</v>
       </c>
       <c r="N55" s="1">
@@ -8658,11 +9058,11 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
       <c r="F56" s="24" t="s">
         <v>52</v>
       </c>
@@ -8679,11 +9079,11 @@
       <c r="M56" s="24"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
       <c r="F57" s="24" t="s">
         <v>106</v>
       </c>
@@ -8700,11 +9100,11 @@
       <c r="M57" s="24"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
       <c r="F58" s="24" t="s">
         <v>130</v>
       </c>
@@ -8721,11 +9121,11 @@
       <c r="M58" s="24"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
       <c r="F59" s="24" t="s">
         <v>105</v>
       </c>
@@ -8742,11 +9142,11 @@
       <c r="M59" s="24"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
       <c r="F60" s="24" t="s">
         <v>82</v>
       </c>
@@ -9877,22 +10277,34 @@
   </sheetData>
   <autoFilter ref="C1:C134"/>
   <mergeCells count="52">
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="A11:A19"/>
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="C30:C34"/>
     <mergeCell ref="B30:B34"/>
@@ -9900,35 +10312,23 @@
     <mergeCell ref="B35:B40"/>
     <mergeCell ref="C35:C40"/>
     <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E51"/>
     <mergeCell ref="A41:A45"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -9986,8 +10386,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
@@ -10010,7 +10410,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="16">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -10018,7 +10418,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="17">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -10026,7 +10426,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="17">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -10034,7 +10434,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="18">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -10046,16 +10446,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="16"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B25" s="18"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
@@ -10073,7 +10467,7 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
@@ -10093,10 +10487,10 @@
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -10105,10 +10499,10 @@
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
+++ b/SICSA/ENTREGABLES/Matris de Pruebas Administración de Auditorias/Matriz de Pruebas Modulo Administración.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Administración Auditorias " sheetId="8" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Administración Auditorias '!$C$1:$C$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Administración Auditorias '!$C$1:$C$135</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
-    <pivotCache cacheId="17" r:id="rId5"/>
+    <pivotCache cacheId="28" r:id="rId4"/>
+    <pivotCache cacheId="31" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="140">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -517,6 +517,27 @@
   </si>
   <si>
     <t>https://sfytgenl.atlassian.net/browse/SICSA-419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrar Ayudas </t>
+  </si>
+  <si>
+    <t>Seleccionar video</t>
+  </si>
+  <si>
+    <t>Seleccionar Guía Rápida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleccionar Preguntas Frecuentes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard de Auditorias </t>
+  </si>
+  <si>
+    <t>Dashboard de Auditorías</t>
   </si>
 </sst>
 </file>
@@ -858,7 +879,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -921,17 +942,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,6 +1004,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2015,7 +2048,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>41</c:v>
@@ -2411,18 +2444,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$25</c:f>
+              <c:f>GRAFICOS!$A$25:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total general</c:v>
+                  <c:v>Finalizada </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$25</c:f>
+              <c:f>GRAFICOS!$B$25:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5628,13 +5661,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5662,15 +5695,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5700,13 +5733,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>156209</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5772,69 +5805,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45195.643692129626" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="65">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N71" sheet="Administración Auditorias "/>
-  </cacheSource>
-  <cacheFields count="14">
-    <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
-    </cacheField>
-    <cacheField name="Menús" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Submenú" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Perfil" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Usuario " numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Acción" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Estatus de Prueba" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="Realizado"/>
-        <s v="Error"/>
-        <s v="Pendiente"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Resultado Obtenido" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
-    </cacheField>
-    <cacheField name="Resultado Esperado" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="N° de Indicente" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="103" maxValue="120"/>
-    </cacheField>
-    <cacheField name="Desarrollador" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Estatus Incidente" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="N° de Tarea Jira" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Fecha " numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-08-18T00:00:00" maxDate="2023-09-27T00:00:00"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45195.643692361111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45198.686341898145" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:N19" sheet="Administración Auditorias "/>
   </cacheSource>
@@ -5898,8 +5869,283 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45198.686342245368" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="66">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A6:N72" sheet="Administración Auditorias "/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="N° Caso" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="18"/>
+    </cacheField>
+    <cacheField name="Menús" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Submenú" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Perfil" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Usuario " numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Acción" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Estatus de Prueba" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Realizado"/>
+        <s v="Error"/>
+        <s v="Pendiente"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Resultado Obtenido" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="Resultado Esperado" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="N° de Indicente" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="103" maxValue="120"/>
+    </cacheField>
+    <cacheField name="Desarrollador" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Estatus Incidente" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="N° de Tarea Jira" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Fecha " numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-08-18T00:00:00" maxDate="2023-09-27T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="65">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="13">
+  <r>
+    <n v="1"/>
+    <s v="Ingresar sitio web"/>
+    <s v="http://10.200.4.165/"/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar "/>
+    <s v="Realizado"/>
+    <s v="Ingresa al sitio wed correspondiente "/>
+    <s v="Ingresar "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-18T00:00:00"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Ingresar las Credenciales "/>
+    <s v="disrec"/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar "/>
+    <s v="Realizado"/>
+    <s v="Direcciona "/>
+    <s v="Ingresar "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Aplicación Auditorias "/>
+    <m/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar "/>
+    <s v="Realizado"/>
+    <s v="Ingresar a  la plataforma"/>
+    <s v="Ingresar plataforma PAUA"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Principal "/>
+    <s v="Administración de Auditorias "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Pantalla Inicio "/>
+    <s v="Realizado"/>
+    <s v="Ingresa al menú correctamente"/>
+    <s v="Ingresar al Menú Catálogos "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Aplicación Auditorias "/>
+    <s v="Auditorías"/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar "/>
+    <s v="Realizado"/>
+    <s v="Ingresa al catálogo"/>
+    <s v="Ingresar al catálogo"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Agregar"/>
+    <s v="Realizado"/>
+    <s v="Falla al agregar registro, no direcciona a página principal. Ademas de registrar el mismo registro varias veces. "/>
+    <s v="Agrega Registro "/>
+    <n v="103"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-182"/>
+    <d v="2023-08-18T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <s v="Realizado"/>
+    <s v="el mensaje de confirmación dice consulta exitosa y no y no la acción que acaba de realizar Actualizar el Registro con éxito. "/>
+    <s v="Edita Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Al momento de eliminar el registro arroja dos mensajes de confirmación "/>
+    <s v="Elimina Registro "/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-190"/>
+    <d v="2023-09-26T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Buscar "/>
+    <s v="Realizado"/>
+    <s v="Busca Registros requerido "/>
+    <s v="Buscar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Filtrado "/>
+    <s v="Realizado"/>
+    <s v="Filtra Registros "/>
+    <s v="Filtra registro con los caracteres requerido "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Exportar "/>
+    <s v="Realizado"/>
+    <s v="Exporta Registros "/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Filas por Página "/>
+    <s v="Realizado"/>
+    <s v="Filtra por Paginación "/>
+    <s v="Filtra por Pagina "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ortografía"/>
+    <s v="Realizado"/>
+    <s v="No se visualizan faltas de ortografia "/>
+    <s v="Buena Ortografía "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-18T00:00:00"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="66">
   <r>
     <n v="1"/>
     <s v="Ingresar sitio web"/>
@@ -6767,6 +7013,22 @@
   <r>
     <n v="14"/>
     <s v="Auditorias "/>
+    <s v="Dashboard de Auditorías"/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Dashboard de Auditorias "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Auditorias "/>
     <s v="Ver Plan de Trabajo "/>
     <s v="Administrador "/>
     <s v="disrec"/>
@@ -6781,7 +7043,7 @@
     <m/>
   </r>
   <r>
-    <n v="15"/>
+    <n v="16"/>
     <s v="Auditorias "/>
     <s v="Contestación a Organo Auditor "/>
     <s v="Administrador "/>
@@ -6797,7 +7059,7 @@
     <m/>
   </r>
   <r>
-    <n v="16"/>
+    <n v="17"/>
     <s v="Auditorias"/>
     <s v="Cambiar Entrega "/>
     <s v="Administrador "/>
@@ -6813,13 +7075,13 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="18"/>
+    <s v="Auditorias"/>
+    <s v="Administrar Ayudas "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Seleccionar video"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -6834,8 +7096,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <x v="3"/>
+    <s v="Guadar "/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -6850,8 +7112,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <x v="3"/>
+    <s v="Buscar "/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -6866,8 +7128,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <x v="3"/>
+    <s v="Seleccionar Guía Rápida"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -6882,8 +7144,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <x v="3"/>
+    <s v="Guadar "/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -6898,8 +7160,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <x v="3"/>
+    <s v="Buscar "/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -6914,8 +7176,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <x v="3"/>
+    <s v="Seleccionar Preguntas Frecuentes "/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -6930,234 +7192,21 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="13">
-  <r>
-    <n v="1"/>
-    <s v="Ingresar sitio web"/>
-    <s v="http://10.200.4.165/"/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Ingresar "/>
-    <s v="Realizado"/>
-    <s v="Ingresa al sitio wed correspondiente "/>
-    <s v="Ingresar "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-18T00:00:00"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <s v="Ingresar las Credenciales "/>
-    <s v="disrec"/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Ingresar "/>
-    <s v="Realizado"/>
-    <s v="Direcciona "/>
-    <s v="Ingresar "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="3"/>
-    <s v="Aplicación Auditorias "/>
-    <m/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Ingresar "/>
-    <s v="Realizado"/>
-    <s v="Ingresar a  la plataforma"/>
-    <s v="Ingresar plataforma PAUA"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="4"/>
-    <s v="Principal "/>
-    <s v="Administración de Auditorias "/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Pantalla Inicio "/>
-    <s v="Realizado"/>
-    <s v="Ingresa al menú correctamente"/>
-    <s v="Ingresar al Menú Catálogos "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="5"/>
-    <s v="Aplicación Auditorias "/>
-    <s v="Auditorías"/>
-    <s v="Administrador "/>
-    <s v="disrec"/>
-    <s v="Ingresar "/>
-    <s v="Realizado"/>
-    <s v="Ingresa al catálogo"/>
-    <s v="Ingresar al catálogo"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <s v="Realizado"/>
-    <s v="Falla al agregar registro, no direcciona a página principal. Ademas de registrar el mismo registro varias veces. "/>
-    <s v="Agrega Registro "/>
-    <n v="103"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://sfytgenl.atlassian.net/browse/SICSA-182"/>
-    <d v="2023-08-18T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <s v="Realizado"/>
-    <s v="el mensaje de confirmación dice consulta exitosa y no y no la acción que acaba de realizar Actualizar el Registro con éxito. "/>
-    <s v="Edita Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar "/>
-    <s v="Realizado"/>
-    <s v="Al momento de eliminar el registro arroja dos mensajes de confirmación "/>
-    <s v="Elimina Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://sfytgenl.atlassian.net/browse/SICSA-190"/>
-    <d v="2023-09-26T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Buscar "/>
-    <s v="Realizado"/>
-    <s v="Busca Registros requerido "/>
-    <s v="Buscar registros "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Filtrado "/>
-    <s v="Realizado"/>
-    <s v="Filtra Registros "/>
-    <s v="Filtra registro con los caracteres requerido "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar "/>
-    <s v="Realizado"/>
-    <s v="Exporta Registros "/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Filas por Página "/>
-    <s v="Realizado"/>
-    <s v="Filtra por Paginación "/>
-    <s v="Filtra por Pagina "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <s v="Realizado"/>
-    <s v="No se visualizan faltas de ortografia "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-18T00:00:00"/>
+    <s v="Guadar "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -7266,7 +7315,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:D51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -7377,8 +7426,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -7395,7 +7444,7 @@
       <items count="4">
         <item h="1" x="0"/>
         <item m="1" x="2"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7405,7 +7454,10 @@
   <rowFields count="1">
     <field x="11"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -7684,17 +7736,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="7" ySplit="9" topLeftCell="J46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I69" sqref="I69"/>
+      <selection pane="bottomRight" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11" style="54"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
@@ -7801,7 +7854,7 @@
       <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -7845,7 +7898,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="54">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7879,7 +7932,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="54">
         <v>2</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -7911,7 +7964,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="54">
         <v>3</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -7941,7 +7994,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="54">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -7973,19 +8026,19 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="51">
         <v>5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -8003,11 +8056,11 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="23" t="s">
         <v>19</v>
       </c>
@@ -8037,11 +8090,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="23" t="s">
         <v>20</v>
       </c>
@@ -8057,11 +8110,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="23" t="s">
         <v>52</v>
       </c>
@@ -8088,11 +8141,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="23" t="s">
         <v>53</v>
       </c>
@@ -8108,11 +8161,11 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="23" t="s">
         <v>54</v>
       </c>
@@ -8128,11 +8181,11 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="23" t="s">
         <v>77</v>
       </c>
@@ -8145,11 +8198,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="23" t="s">
         <v>55</v>
       </c>
@@ -8165,11 +8218,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="23" t="s">
         <v>78</v>
       </c>
@@ -8188,19 +8241,19 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
+      <c r="A20" s="51">
         <v>6</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="23" t="s">
@@ -8217,11 +8270,11 @@
       <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="23" t="s">
         <v>20</v>
       </c>
@@ -8238,11 +8291,11 @@
       <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="23" t="s">
         <v>52</v>
       </c>
@@ -8259,11 +8312,11 @@
       <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="24" t="s">
         <v>81</v>
       </c>
@@ -8280,19 +8333,19 @@
       <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="29">
+      <c r="A24" s="51">
         <v>7</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F24" s="24" t="s">
@@ -8324,11 +8377,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="24" t="s">
         <v>52</v>
       </c>
@@ -8345,11 +8398,11 @@
       <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="24" t="s">
         <v>106</v>
       </c>
@@ -8366,11 +8419,11 @@
       <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="24" t="s">
         <v>130</v>
       </c>
@@ -8387,11 +8440,11 @@
       <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="24" t="s">
         <v>105</v>
       </c>
@@ -8408,11 +8461,11 @@
       <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="24" t="s">
         <v>82</v>
       </c>
@@ -8429,19 +8482,19 @@
       <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="29">
+      <c r="A30" s="51">
         <v>8</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F30" s="24" t="s">
@@ -8470,11 +8523,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="24" t="s">
         <v>84</v>
       </c>
@@ -8487,11 +8540,11 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="24" t="s">
         <v>20</v>
       </c>
@@ -8508,11 +8561,11 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="24" t="s">
         <v>52</v>
       </c>
@@ -8529,11 +8582,11 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="24" t="s">
         <v>102</v>
       </c>
@@ -8550,19 +8603,19 @@
       <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="29">
+      <c r="A35" s="51">
         <v>9</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F35" s="24" t="s">
@@ -8594,11 +8647,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="24" t="s">
         <v>52</v>
       </c>
@@ -8615,11 +8668,11 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="24" t="s">
         <v>106</v>
       </c>
@@ -8636,11 +8689,11 @@
       <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="24" t="s">
         <v>130</v>
       </c>
@@ -8657,11 +8710,11 @@
       <c r="M38" s="24"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="24" t="s">
         <v>105</v>
       </c>
@@ -8678,11 +8731,11 @@
       <c r="M39" s="24"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="24" t="s">
         <v>82</v>
       </c>
@@ -8699,19 +8752,19 @@
       <c r="M40" s="24"/>
     </row>
     <row r="41" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A41" s="29">
+      <c r="A41" s="51">
         <v>10</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F41" s="24" t="s">
@@ -8741,11 +8794,11 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="24" t="s">
         <v>20</v>
       </c>
@@ -8762,11 +8815,11 @@
       <c r="M42" s="24"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="24" t="s">
         <v>52</v>
       </c>
@@ -8779,11 +8832,11 @@
       <c r="M43" s="24"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="24" t="s">
         <v>128</v>
       </c>
@@ -8796,11 +8849,11 @@
       <c r="M44" s="24"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="24" t="s">
         <v>81</v>
       </c>
@@ -8815,19 +8868,19 @@
       <c r="M45" s="24"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="29">
+      <c r="A46" s="51">
         <v>11</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F46" s="24" t="s">
@@ -8859,11 +8912,11 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="24" t="s">
         <v>52</v>
       </c>
@@ -8880,11 +8933,11 @@
       <c r="M47" s="24"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="24" t="s">
         <v>106</v>
       </c>
@@ -8901,11 +8954,11 @@
       <c r="M48" s="24"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
       <c r="F49" s="24" t="s">
         <v>130</v>
       </c>
@@ -8922,11 +8975,11 @@
       <c r="M49" s="24"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
       <c r="F50" s="24" t="s">
         <v>105</v>
       </c>
@@ -8943,11 +8996,11 @@
       <c r="M50" s="24"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
       <c r="F51" s="24" t="s">
         <v>82</v>
       </c>
@@ -8964,19 +9017,19 @@
       <c r="M51" s="24"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="29">
+      <c r="A52" s="51">
         <v>12</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F52" s="24" t="s">
@@ -8986,11 +9039,11 @@
       <c r="M52" s="24"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
       <c r="F53" s="24" t="s">
         <v>52</v>
       </c>
@@ -9000,11 +9053,11 @@
       <c r="M53" s="24"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="24" t="s">
         <v>129</v>
       </c>
@@ -9014,19 +9067,19 @@
       <c r="M54" s="24"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="29">
+      <c r="A55" s="51">
         <v>13</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F55" s="24" t="s">
@@ -9058,11 +9111,11 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
       <c r="F56" s="24" t="s">
         <v>52</v>
       </c>
@@ -9079,11 +9132,11 @@
       <c r="M56" s="24"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
       <c r="F57" s="24" t="s">
         <v>106</v>
       </c>
@@ -9100,11 +9153,11 @@
       <c r="M57" s="24"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
       <c r="F58" s="24" t="s">
         <v>130</v>
       </c>
@@ -9121,11 +9174,11 @@
       <c r="M58" s="24"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
       <c r="F59" s="24" t="s">
         <v>105</v>
       </c>
@@ -9142,11 +9195,11 @@
       <c r="M59" s="24"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="24" t="s">
         <v>82</v>
       </c>
@@ -9163,23 +9216,23 @@
       <c r="M60" s="24"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="20">
+      <c r="A61" s="30">
         <v>14</v>
       </c>
       <c r="B61" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="G61" t="s">
         <v>24</v>
@@ -9190,14 +9243,14 @@
       <c r="M61" s="24"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="20">
+      <c r="A62" s="54">
         <v>15</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>51</v>
@@ -9205,25 +9258,26 @@
       <c r="E62" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24" t="s">
+      <c r="F62" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" t="s">
         <v>24</v>
       </c>
       <c r="H62" s="24"/>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
-      <c r="L62" s="24"/>
       <c r="M62" s="24"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="20">
+      <c r="A63" s="54">
         <v>16</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>51</v>
@@ -9242,13 +9296,25 @@
       <c r="M63" s="24"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
+      <c r="A64" s="54">
+        <v>17</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
+      <c r="G64" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
@@ -9256,13 +9322,27 @@
       <c r="M64" s="24"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
+      <c r="A65" s="51">
+        <v>18</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
@@ -9270,28 +9350,35 @@
       <c r="M65" s="24"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
       <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H67" s="24"/>
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
@@ -9300,13 +9387,17 @@
       <c r="M67" s="24"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H68" s="24"/>
       <c r="I68" s="24"/>
       <c r="J68" s="24"/>
@@ -9315,13 +9406,17 @@
       <c r="M68" s="24"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H69" s="24"/>
       <c r="I69" s="24"/>
       <c r="J69" s="24"/>
@@ -9330,13 +9425,17 @@
       <c r="M69" s="24"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H70" s="24"/>
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
@@ -9345,13 +9444,17 @@
       <c r="M70" s="24"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H71" s="24"/>
       <c r="I71" s="24"/>
       <c r="J71" s="24"/>
@@ -9360,13 +9463,17 @@
       <c r="M71" s="24"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H72" s="24"/>
       <c r="I72" s="24"/>
       <c r="J72" s="24"/>
@@ -9375,13 +9482,17 @@
       <c r="M72" s="24"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H73" s="24"/>
       <c r="I73" s="24"/>
       <c r="J73" s="24"/>
@@ -9390,7 +9501,7 @@
       <c r="M73" s="24"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
+      <c r="A74" s="30"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
@@ -9405,7 +9516,7 @@
       <c r="M74" s="24"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="24"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
@@ -9420,7 +9531,7 @@
       <c r="M75" s="24"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="24"/>
+      <c r="A76" s="30"/>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
@@ -9435,7 +9546,7 @@
       <c r="M76" s="24"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
+      <c r="A77" s="30"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
@@ -9450,7 +9561,7 @@
       <c r="M77" s="24"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
+      <c r="A78" s="30"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
@@ -9465,7 +9576,7 @@
       <c r="M78" s="24"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="24"/>
+      <c r="A79" s="30"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
       <c r="D79" s="24"/>
@@ -9480,7 +9591,7 @@
       <c r="M79" s="24"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="24"/>
+      <c r="A80" s="30"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
@@ -9495,7 +9606,7 @@
       <c r="M80" s="24"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" s="24"/>
+      <c r="A81" s="30"/>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
@@ -9510,7 +9621,7 @@
       <c r="M81" s="24"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" s="24"/>
+      <c r="A82" s="30"/>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
@@ -9525,7 +9636,7 @@
       <c r="M82" s="24"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="24"/>
+      <c r="A83" s="30"/>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
@@ -9540,7 +9651,7 @@
       <c r="M83" s="24"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="24"/>
+      <c r="A84" s="30"/>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
@@ -9555,7 +9666,7 @@
       <c r="M84" s="24"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="24"/>
+      <c r="A85" s="30"/>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
@@ -9570,7 +9681,7 @@
       <c r="M85" s="24"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" s="24"/>
+      <c r="A86" s="30"/>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
@@ -9585,7 +9696,7 @@
       <c r="M86" s="24"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" s="24"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
@@ -9600,7 +9711,7 @@
       <c r="M87" s="24"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" s="24"/>
+      <c r="A88" s="30"/>
       <c r="B88" s="24"/>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
@@ -9615,7 +9726,7 @@
       <c r="M88" s="24"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" s="24"/>
+      <c r="A89" s="30"/>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
       <c r="D89" s="24"/>
@@ -9630,7 +9741,7 @@
       <c r="M89" s="24"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="24"/>
+      <c r="A90" s="30"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
@@ -9645,7 +9756,7 @@
       <c r="M90" s="24"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" s="24"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
@@ -9660,7 +9771,7 @@
       <c r="M91" s="24"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" s="24"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
       <c r="D92" s="24"/>
@@ -9675,7 +9786,7 @@
       <c r="M92" s="24"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" s="24"/>
+      <c r="A93" s="30"/>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
       <c r="D93" s="24"/>
@@ -9690,7 +9801,7 @@
       <c r="M93" s="24"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" s="24"/>
+      <c r="A94" s="30"/>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
       <c r="D94" s="24"/>
@@ -9705,7 +9816,7 @@
       <c r="M94" s="24"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="24"/>
+      <c r="A95" s="30"/>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
       <c r="D95" s="24"/>
@@ -9720,7 +9831,7 @@
       <c r="M95" s="24"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="24"/>
+      <c r="A96" s="30"/>
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
       <c r="D96" s="24"/>
@@ -9735,7 +9846,7 @@
       <c r="M96" s="24"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A97" s="24"/>
+      <c r="A97" s="30"/>
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
       <c r="D97" s="24"/>
@@ -9750,7 +9861,7 @@
       <c r="M97" s="24"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98" s="24"/>
+      <c r="A98" s="30"/>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
       <c r="D98" s="24"/>
@@ -9765,7 +9876,7 @@
       <c r="M98" s="24"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A99" s="24"/>
+      <c r="A99" s="30"/>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
       <c r="D99" s="24"/>
@@ -9780,7 +9891,7 @@
       <c r="M99" s="24"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A100" s="24"/>
+      <c r="A100" s="30"/>
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
       <c r="D100" s="24"/>
@@ -9795,7 +9906,7 @@
       <c r="M100" s="24"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A101" s="24"/>
+      <c r="A101" s="30"/>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24"/>
@@ -9810,7 +9921,7 @@
       <c r="M101" s="24"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A102" s="24"/>
+      <c r="A102" s="30"/>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24"/>
@@ -9825,7 +9936,7 @@
       <c r="M102" s="24"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A103" s="24"/>
+      <c r="A103" s="30"/>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24"/>
@@ -9840,7 +9951,7 @@
       <c r="M103" s="24"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A104" s="24"/>
+      <c r="A104" s="30"/>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24"/>
@@ -9855,7 +9966,7 @@
       <c r="M104" s="24"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A105" s="24"/>
+      <c r="A105" s="30"/>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
@@ -9870,7 +9981,7 @@
       <c r="M105" s="24"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" s="24"/>
+      <c r="A106" s="30"/>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
@@ -9885,7 +9996,7 @@
       <c r="M106" s="24"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A107" s="24"/>
+      <c r="A107" s="30"/>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
       <c r="D107" s="24"/>
@@ -9900,7 +10011,7 @@
       <c r="M107" s="24"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A108" s="24"/>
+      <c r="A108" s="30"/>
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24"/>
@@ -9915,7 +10026,7 @@
       <c r="M108" s="24"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A109" s="24"/>
+      <c r="A109" s="30"/>
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
       <c r="D109" s="24"/>
@@ -9930,7 +10041,7 @@
       <c r="M109" s="24"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A110" s="24"/>
+      <c r="A110" s="30"/>
       <c r="B110" s="24"/>
       <c r="C110" s="24"/>
       <c r="D110" s="24"/>
@@ -9945,7 +10056,7 @@
       <c r="M110" s="24"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A111" s="24"/>
+      <c r="A111" s="30"/>
       <c r="B111" s="24"/>
       <c r="C111" s="24"/>
       <c r="D111" s="24"/>
@@ -9960,7 +10071,7 @@
       <c r="M111" s="24"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A112" s="24"/>
+      <c r="A112" s="30"/>
       <c r="B112" s="24"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
@@ -9975,7 +10086,7 @@
       <c r="M112" s="24"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A113" s="24"/>
+      <c r="A113" s="30"/>
       <c r="B113" s="24"/>
       <c r="C113" s="24"/>
       <c r="D113" s="24"/>
@@ -9990,7 +10101,7 @@
       <c r="M113" s="24"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A114" s="24"/>
+      <c r="A114" s="30"/>
       <c r="B114" s="24"/>
       <c r="C114" s="24"/>
       <c r="D114" s="24"/>
@@ -10005,7 +10116,7 @@
       <c r="M114" s="24"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="24"/>
+      <c r="A115" s="30"/>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
       <c r="D115" s="24"/>
@@ -10020,7 +10131,7 @@
       <c r="M115" s="24"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116" s="24"/>
+      <c r="A116" s="30"/>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
@@ -10035,7 +10146,7 @@
       <c r="M116" s="24"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117" s="24"/>
+      <c r="A117" s="30"/>
       <c r="B117" s="24"/>
       <c r="C117" s="24"/>
       <c r="D117" s="24"/>
@@ -10050,7 +10161,7 @@
       <c r="M117" s="24"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118" s="24"/>
+      <c r="A118" s="30"/>
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
@@ -10065,7 +10176,7 @@
       <c r="M118" s="24"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119" s="24"/>
+      <c r="A119" s="30"/>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
@@ -10080,7 +10191,7 @@
       <c r="M119" s="24"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="24"/>
+      <c r="A120" s="30"/>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
       <c r="D120" s="24"/>
@@ -10095,7 +10206,7 @@
       <c r="M120" s="24"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121" s="24"/>
+      <c r="A121" s="30"/>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
       <c r="D121" s="24"/>
@@ -10110,7 +10221,7 @@
       <c r="M121" s="24"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" s="24"/>
+      <c r="A122" s="30"/>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
@@ -10125,7 +10236,7 @@
       <c r="M122" s="24"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" s="24"/>
+      <c r="A123" s="30"/>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
       <c r="D123" s="24"/>
@@ -10140,7 +10251,7 @@
       <c r="M123" s="24"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124" s="24"/>
+      <c r="A124" s="30"/>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
@@ -10155,7 +10266,7 @@
       <c r="M124" s="24"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="24"/>
+      <c r="A125" s="30"/>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
       <c r="D125" s="24"/>
@@ -10170,7 +10281,7 @@
       <c r="M125" s="24"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="24"/>
+      <c r="A126" s="30"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
       <c r="D126" s="24"/>
@@ -10185,7 +10296,7 @@
       <c r="M126" s="24"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="24"/>
+      <c r="A127" s="30"/>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
       <c r="D127" s="24"/>
@@ -10200,7 +10311,7 @@
       <c r="M127" s="24"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="24"/>
+      <c r="A128" s="30"/>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
@@ -10215,7 +10326,7 @@
       <c r="M128" s="24"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129" s="24"/>
+      <c r="A129" s="30"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
       <c r="D129" s="24"/>
@@ -10230,7 +10341,7 @@
       <c r="M129" s="24"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" s="24"/>
+      <c r="A130" s="30"/>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
       <c r="D130" s="24"/>
@@ -10245,7 +10356,7 @@
       <c r="M130" s="24"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" s="24"/>
+      <c r="A131" s="30"/>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
       <c r="D131" s="24"/>
@@ -10260,7 +10371,7 @@
       <c r="M131" s="24"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132" s="24"/>
+      <c r="A132" s="30"/>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24"/>
@@ -10274,9 +10385,65 @@
       <c r="L132" s="24"/>
       <c r="M132" s="24"/>
     </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="30"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
+      <c r="M133" s="24"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C134"/>
-  <mergeCells count="52">
+  <autoFilter ref="C1:C135"/>
+  <mergeCells count="57">
+    <mergeCell ref="E65:E73"/>
+    <mergeCell ref="D65:D73"/>
+    <mergeCell ref="C65:C73"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="E30:E34"/>
@@ -10288,47 +10455,11 @@
     <mergeCell ref="E41:E45"/>
     <mergeCell ref="D41:D45"/>
     <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="A11:A19"/>
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="C30:C34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D52:D54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -10361,13 +10492,13 @@
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L133:L1048576 L1:L61</xm:sqref>
+          <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K65</xm:sqref>
+          <xm:sqref>K6:K66</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10379,14 +10510,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
@@ -10418,7 +10549,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="17">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -10434,7 +10565,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="18">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -10446,10 +10577,16 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="16"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B26" s="18"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
